--- a/User Data/MARCH_2021/Monthly Report LHR 01-03-2021.xlsx
+++ b/User Data/MARCH_2021/Monthly Report LHR 01-03-2021.xlsx
@@ -8,10 +8,13 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bill Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB001-03-2021" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB001-03-20211" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB001-03-20212" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB1345-03-2021" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB002-03-2021" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB002-03-20211" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB003-03-2021" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB004-03-2021" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB004-03-20211" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB005-03-2021" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB006-03-2021" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -411,7 +414,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
@@ -500,6 +503,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,8 +532,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="43" fontId="6" fillId="4" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -520,30 +542,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
@@ -566,6 +569,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -979,134 +992,134 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18.42578125" customWidth="1" style="56" min="2" max="2"/>
-    <col width="9.28515625" customWidth="1" style="56" min="3" max="3"/>
-    <col width="20.42578125" customWidth="1" style="56" min="4" max="4"/>
-    <col width="15.7109375" customWidth="1" style="56" min="5" max="5"/>
-    <col width="16.140625" customWidth="1" style="56" min="6" max="6"/>
-    <col width="18.7109375" customWidth="1" style="56" min="7" max="7"/>
-    <col width="15.28515625" customWidth="1" style="56" min="8" max="8"/>
-    <col width="9.5703125" customWidth="1" style="56" min="9" max="9"/>
-    <col width="19.28515625" customWidth="1" style="56" min="10" max="10"/>
+    <col width="18.42578125" customWidth="1" style="41" min="2" max="2"/>
+    <col width="9.28515625" customWidth="1" style="41" min="3" max="3"/>
+    <col width="20.42578125" customWidth="1" style="41" min="4" max="4"/>
+    <col width="15.7109375" customWidth="1" style="41" min="5" max="5"/>
+    <col width="16.140625" customWidth="1" style="41" min="6" max="6"/>
+    <col width="18.7109375" customWidth="1" style="41" min="7" max="7"/>
+    <col width="15.28515625" customWidth="1" style="41" min="8" max="8"/>
+    <col width="9.5703125" customWidth="1" style="41" min="9" max="9"/>
+    <col width="19.28515625" customWidth="1" style="41" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="4" ht="15.75" customHeight="1" s="56" thickBot="1"/>
-    <row r="5" ht="15.75" customHeight="1" s="56" thickBot="1">
-      <c r="A5" s="40" t="inlineStr">
+    <row r="4" ht="15.75" customHeight="1" s="41" thickBot="1"/>
+    <row r="5" ht="15.75" customHeight="1" s="41" thickBot="1">
+      <c r="A5" s="51" t="inlineStr">
         <is>
           <t xml:space="preserve">                                                            Bank Al Habib Limited                                Date: dd-mm-yyyy </t>
         </is>
       </c>
-      <c r="B5" s="41" t="n"/>
-      <c r="C5" s="41" t="n"/>
-      <c r="D5" s="41" t="n"/>
-      <c r="E5" s="41" t="n"/>
-      <c r="F5" s="41" t="n"/>
-      <c r="G5" s="41" t="n"/>
-      <c r="H5" s="41" t="n"/>
-      <c r="I5" s="41" t="n"/>
-      <c r="J5" s="42" t="n"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" s="56" thickBot="1">
-      <c r="A6" s="43" t="inlineStr">
+      <c r="B5" s="52" t="n"/>
+      <c r="C5" s="52" t="n"/>
+      <c r="D5" s="52" t="n"/>
+      <c r="E5" s="52" t="n"/>
+      <c r="F5" s="52" t="n"/>
+      <c r="G5" s="52" t="n"/>
+      <c r="H5" s="52" t="n"/>
+      <c r="I5" s="52" t="n"/>
+      <c r="J5" s="53" t="n"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="41" thickBot="1">
+      <c r="A6" s="54" t="inlineStr">
         <is>
           <t>Bills Summary zone_name ZONE</t>
         </is>
       </c>
-      <c r="B6" s="44" t="n"/>
-      <c r="C6" s="44" t="n"/>
-      <c r="D6" s="44" t="n"/>
-      <c r="E6" s="44" t="n"/>
-      <c r="F6" s="44" t="n"/>
-      <c r="G6" s="44" t="n"/>
-      <c r="H6" s="44" t="n"/>
-      <c r="I6" s="44" t="n"/>
-      <c r="J6" s="45" t="n"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" s="56" thickBot="1">
+      <c r="B6" s="47" t="n"/>
+      <c r="C6" s="47" t="n"/>
+      <c r="D6" s="47" t="n"/>
+      <c r="E6" s="47" t="n"/>
+      <c r="F6" s="47" t="n"/>
+      <c r="G6" s="47" t="n"/>
+      <c r="H6" s="47" t="n"/>
+      <c r="I6" s="47" t="n"/>
+      <c r="J6" s="48" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="41" thickBot="1">
       <c r="A7" s="19" t="n"/>
       <c r="B7" s="20" t="n"/>
       <c r="C7" s="20" t="n"/>
       <c r="D7" s="20" t="n"/>
       <c r="E7" s="20" t="n"/>
-      <c r="F7" s="46" t="inlineStr">
+      <c r="F7" s="55" t="inlineStr">
         <is>
           <t xml:space="preserve">Rate of sales tax 16% on services </t>
         </is>
       </c>
-      <c r="G7" s="44" t="n"/>
-      <c r="H7" s="44" t="n"/>
-      <c r="I7" s="44" t="n"/>
-      <c r="J7" s="45" t="n"/>
+      <c r="G7" s="47" t="n"/>
+      <c r="H7" s="47" t="n"/>
+      <c r="I7" s="47" t="n"/>
+      <c r="J7" s="48" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="47" t="inlineStr">
+      <c r="A8" s="56" t="inlineStr">
         <is>
           <t>Sr No.</t>
         </is>
       </c>
-      <c r="B8" s="47" t="inlineStr">
+      <c r="B8" s="56" t="inlineStr">
         <is>
           <t>Branch / Department</t>
         </is>
       </c>
-      <c r="C8" s="49" t="inlineStr">
+      <c r="C8" s="58" t="inlineStr">
         <is>
           <t>Branch Code</t>
         </is>
       </c>
-      <c r="D8" s="47" t="inlineStr">
+      <c r="D8" s="56" t="inlineStr">
         <is>
           <t>Invoice No</t>
         </is>
       </c>
-      <c r="E8" s="51" t="inlineStr">
+      <c r="E8" s="59" t="inlineStr">
         <is>
           <t>Amount Excluding sales tax
 Parts</t>
         </is>
       </c>
-      <c r="F8" s="53" t="inlineStr">
+      <c r="F8" s="42" t="inlineStr">
         <is>
           <t>Sales tax
 Services</t>
         </is>
       </c>
-      <c r="G8" s="54" t="inlineStr">
+      <c r="G8" s="60" t="inlineStr">
         <is>
           <t>Amount including sales tax
 16%</t>
         </is>
       </c>
-      <c r="H8" s="53" t="inlineStr">
+      <c r="H8" s="42" t="inlineStr">
         <is>
           <t>Reimbursement of Transportation</t>
         </is>
       </c>
-      <c r="I8" s="57" t="inlineStr">
+      <c r="I8" s="44" t="inlineStr">
         <is>
           <t>Out of City Charges</t>
         </is>
       </c>
-      <c r="J8" s="57" t="inlineStr">
+      <c r="J8" s="44" t="inlineStr">
         <is>
           <t>Grand Total</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="56" thickBot="1">
-      <c r="A9" s="48" t="n"/>
-      <c r="B9" s="48" t="n"/>
-      <c r="C9" s="50" t="n"/>
-      <c r="D9" s="48" t="n"/>
-      <c r="E9" s="52" t="n"/>
-      <c r="F9" s="52" t="n"/>
-      <c r="G9" s="52" t="n"/>
-      <c r="H9" s="52" t="n"/>
-      <c r="I9" s="50" t="n"/>
-      <c r="J9" s="50" t="n"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="56">
+    <row r="9" ht="15.75" customHeight="1" s="41" thickBot="1">
+      <c r="A9" s="57" t="n"/>
+      <c r="B9" s="57" t="n"/>
+      <c r="C9" s="45" t="n"/>
+      <c r="D9" s="57" t="n"/>
+      <c r="E9" s="43" t="n"/>
+      <c r="F9" s="43" t="n"/>
+      <c r="G9" s="43" t="n"/>
+      <c r="H9" s="43" t="n"/>
+      <c r="I9" s="45" t="n"/>
+      <c r="J9" s="45" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="41">
       <c r="A10" s="11" t="n">
         <v>1</v>
       </c>
@@ -1150,7 +1163,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="56">
+    <row r="11" ht="15.75" customHeight="1" s="41">
       <c r="A11" s="11" t="n">
         <v>2</v>
       </c>
@@ -1194,7 +1207,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="56">
+    <row r="12" ht="15.75" customHeight="1" s="41">
       <c r="A12" s="11" t="n">
         <v>3</v>
       </c>
@@ -1238,7 +1251,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="56">
+    <row r="13" ht="15.75" customHeight="1" s="41">
       <c r="A13" s="11" t="n">
         <v>4</v>
       </c>
@@ -1282,7 +1295,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="56" thickBot="1">
+    <row r="14" ht="15.75" customHeight="1" s="41" thickBot="1">
       <c r="A14" s="11" t="n">
         <v>5</v>
       </c>
@@ -1326,15 +1339,15 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="56" thickBot="1">
-      <c r="A15" s="58" t="inlineStr">
+    <row r="15" ht="15.75" customHeight="1" s="41" thickBot="1">
+      <c r="A15" s="46" t="inlineStr">
         <is>
           <t>Total Amount</t>
         </is>
       </c>
-      <c r="B15" s="44" t="n"/>
-      <c r="C15" s="44" t="n"/>
-      <c r="D15" s="45" t="n"/>
+      <c r="B15" s="47" t="n"/>
+      <c r="C15" s="47" t="n"/>
+      <c r="D15" s="48" t="n"/>
       <c r="E15" s="17">
         <f>SUM(E10:E14)</f>
         <v/>
@@ -1361,21 +1374,21 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="59" t="inlineStr">
+      <c r="A18" s="49" t="inlineStr">
         <is>
           <t>Truly Yours,</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="60" t="inlineStr">
+      <c r="A20" s="50" t="inlineStr">
         <is>
           <t>ASAD ALI</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="55" t="inlineStr">
+      <c r="A21" s="40" t="inlineStr">
         <is>
           <t xml:space="preserve">   (Chief Executive)</t>
         </is>
@@ -1383,13 +1396,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="F7:J7"/>
@@ -1400,6 +1406,13 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1414,21 +1427,21 @@
   <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="56" min="1" max="3"/>
-    <col width="14.85546875" customWidth="1" style="56" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="56" min="5" max="7"/>
-    <col width="13.85546875" customWidth="1" style="56" min="8" max="8"/>
-    <col width="9.140625" customWidth="1" style="56" min="9" max="94"/>
-    <col width="9.140625" customWidth="1" style="56" min="95" max="16384"/>
+    <col width="9.140625" customWidth="1" style="41" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="41" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="41" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="41" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="41" min="9" max="94"/>
+    <col width="9.140625" customWidth="1" style="41" min="95" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="120.75" customHeight="1" s="56" thickBot="1"/>
-    <row r="2" ht="15.75" customHeight="1" s="56">
+    <row r="1" ht="120.75" customHeight="1" s="41" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="41">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="33" t="n"/>
       <c r="C2" s="1" t="inlineStr">
@@ -1446,7 +1459,7 @@
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="2" t="n"/>
     </row>
-    <row r="3" ht="16.5" customHeight="1" s="56" thickBot="1">
+    <row r="3" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A3" s="4" t="n"/>
       <c r="B3" s="33" t="n"/>
       <c r="C3" s="3" t="inlineStr">
@@ -1464,7 +1477,7 @@
       <c r="G3" s="4" t="n"/>
       <c r="H3" s="2" t="n"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1" s="56" thickBot="1">
+    <row r="4" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="33" t="n"/>
       <c r="C4" s="3" t="inlineStr">
@@ -1482,7 +1495,7 @@
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="2" t="n"/>
     </row>
-    <row r="5" ht="16.5" customHeight="1" s="56" thickBot="1">
+    <row r="5" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="33" t="n"/>
       <c r="C5" s="3" t="inlineStr">
@@ -1500,7 +1513,7 @@
       <c r="G5" s="4" t="n"/>
       <c r="H5" s="2" t="n"/>
     </row>
-    <row r="6" ht="21" customHeight="1" s="56">
+    <row r="6" ht="21" customHeight="1" s="41">
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="33" t="n"/>
       <c r="C6" s="33" t="n"/>
@@ -1510,7 +1523,7 @@
       <c r="G6" s="4" t="n"/>
       <c r="H6" s="2" t="n"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="56">
+    <row r="7" ht="15.75" customHeight="1" s="41">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>m/d/y</t>
@@ -1520,19 +1533,19 @@
       <c r="C7" s="30" t="n"/>
       <c r="D7" s="33" t="n"/>
       <c r="E7" s="4" t="n"/>
-      <c r="F7" s="55" t="inlineStr">
+      <c r="F7" s="40" t="inlineStr">
         <is>
           <t>Complaint No.</t>
         </is>
       </c>
-      <c r="G7" s="55" t="n"/>
+      <c r="G7" s="40" t="n"/>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>comp_id</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="56">
+    <row r="8" ht="15.75" customHeight="1" s="41">
       <c r="A8" s="33" t="inlineStr">
         <is>
           <t>Bank Al Habib Limited</t>
@@ -1546,7 +1559,7 @@
       <c r="G8" s="4" t="n"/>
       <c r="H8" s="5" t="n"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="56">
+    <row r="9" ht="15.75" customHeight="1" s="41">
       <c r="A9" s="33" t="inlineStr">
         <is>
           <t>address</t>
@@ -1560,7 +1573,7 @@
       <c r="G9" s="4" t="n"/>
       <c r="H9" s="2" t="n"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="56">
+    <row r="10" ht="15.75" customHeight="1" s="41">
       <c r="A10" s="66" t="n"/>
       <c r="D10" s="33" t="n"/>
       <c r="E10" s="4" t="n"/>
@@ -1568,7 +1581,7 @@
       <c r="G10" s="4" t="n"/>
       <c r="H10" s="2" t="n"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="56">
+    <row r="11" ht="15.75" customHeight="1" s="41">
       <c r="A11" s="32" t="n"/>
       <c r="B11" s="32" t="n"/>
       <c r="C11" s="32" t="n"/>
@@ -1579,20 +1592,20 @@
       <c r="H11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="55" t="inlineStr">
+      <c r="A12" s="40" t="inlineStr">
         <is>
           <t>Subject:      Bill for subject_line:</t>
         </is>
       </c>
-      <c r="B12" s="55" t="n"/>
-      <c r="C12" s="55" t="n"/>
-      <c r="D12" s="55" t="n"/>
-      <c r="E12" s="55" t="n"/>
-      <c r="F12" s="55" t="n"/>
-      <c r="G12" s="55" t="n"/>
-      <c r="H12" s="55" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="56">
+      <c r="B12" s="40" t="n"/>
+      <c r="C12" s="40" t="n"/>
+      <c r="D12" s="40" t="n"/>
+      <c r="E12" s="40" t="n"/>
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="40" t="n"/>
+      <c r="H12" s="40" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="41">
       <c r="A13" s="4" t="n"/>
       <c r="B13" s="33" t="n"/>
       <c r="C13" s="33" t="n"/>
@@ -1650,7 +1663,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="56">
+    <row r="16" ht="15.75" customHeight="1" s="41">
       <c r="A16" s="65" t="n"/>
       <c r="B16" s="23" t="n"/>
       <c r="C16" s="24" t="n"/>
@@ -1660,7 +1673,7 @@
       <c r="G16" s="65" t="n"/>
       <c r="H16" s="35" t="n"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="56">
+    <row r="17" ht="15.75" customHeight="1" s="41">
       <c r="A17" s="65" t="n"/>
       <c r="B17" s="23" t="n"/>
       <c r="C17" s="24" t="n"/>
@@ -1670,7 +1683,7 @@
       <c r="G17" s="65" t="n"/>
       <c r="H17" s="35" t="n"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="56">
+    <row r="18" ht="15.75" customHeight="1" s="41">
       <c r="A18" s="21" t="n"/>
       <c r="B18" s="22" t="n"/>
       <c r="C18" s="22" t="n"/>
@@ -1687,7 +1700,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="56">
+    <row r="19" ht="15.75" customHeight="1" s="41">
       <c r="A19" s="21" t="n"/>
       <c r="B19" s="22" t="n"/>
       <c r="C19" s="22" t="n"/>
@@ -1704,7 +1717,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="56">
+    <row r="20" ht="15.75" customHeight="1" s="41">
       <c r="A20" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -1728,11 +1741,12 @@
       <c r="G20" s="7" t="n">
         <v>780</v>
       </c>
-      <c r="H20" s="8" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" s="56">
+      <c r="H20" s="8">
+        <f>G20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="41">
       <c r="A21" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -1760,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="56">
+    <row r="22" ht="15.75" customHeight="1" s="41">
       <c r="A22" s="21" t="n"/>
       <c r="B22" s="22" t="n"/>
       <c r="C22" s="22" t="n"/>
@@ -1797,7 +1811,7 @@
       <c r="G24" s="34" t="n"/>
       <c r="H24" s="34" t="n"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="56">
+    <row r="25" ht="15.75" customHeight="1" s="41">
       <c r="A25" s="33" t="inlineStr">
         <is>
           <t>Truly Yours,</t>
@@ -1835,7 +1849,7 @@
       <c r="G27" s="10" t="n"/>
       <c r="H27" s="10" t="n"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="56">
+    <row r="28" ht="15.75" customHeight="1" s="41">
       <c r="A28" s="33" t="inlineStr">
         <is>
           <t xml:space="preserve">   (Chief Executive)</t>
@@ -1885,16 +1899,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="56" min="1" max="3"/>
-    <col width="14.85546875" customWidth="1" style="56" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="56" min="5" max="7"/>
-    <col width="13.85546875" customWidth="1" style="56" min="8" max="8"/>
-    <col width="9.140625" customWidth="1" style="56" min="9" max="94"/>
-    <col width="9.140625" customWidth="1" style="56" min="95" max="16384"/>
+    <col width="9.140625" customWidth="1" style="41" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="41" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="41" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="41" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="41" min="9" max="94"/>
+    <col width="9.140625" customWidth="1" style="41" min="95" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="120.75" customHeight="1" s="56" thickBot="1"/>
-    <row r="2" ht="15.75" customHeight="1" s="56">
+    <row r="1" ht="120.75" customHeight="1" s="41" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="41">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="33" t="n"/>
       <c r="C2" s="1" t="inlineStr">
@@ -1904,7 +1918,7 @@
       </c>
       <c r="D2" s="64" t="inlineStr">
         <is>
-          <t>LB001-03-2021</t>
+          <t>LB002-03-2021</t>
         </is>
       </c>
       <c r="E2" s="62" t="n"/>
@@ -1912,7 +1926,7 @@
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="2" t="n"/>
     </row>
-    <row r="3" ht="16.5" customHeight="1" s="56" thickBot="1">
+    <row r="3" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A3" s="4" t="n"/>
       <c r="B3" s="33" t="n"/>
       <c r="C3" s="3" t="inlineStr">
@@ -1930,7 +1944,7 @@
       <c r="G3" s="4" t="n"/>
       <c r="H3" s="2" t="n"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1" s="56" thickBot="1">
+    <row r="4" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="33" t="n"/>
       <c r="C4" s="3" t="inlineStr">
@@ -1948,7 +1962,7 @@
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="2" t="n"/>
     </row>
-    <row r="5" ht="16.5" customHeight="1" s="56" thickBot="1">
+    <row r="5" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="33" t="n"/>
       <c r="C5" s="3" t="inlineStr">
@@ -1966,7 +1980,7 @@
       <c r="G5" s="4" t="n"/>
       <c r="H5" s="2" t="n"/>
     </row>
-    <row r="6" ht="21" customHeight="1" s="56">
+    <row r="6" ht="21" customHeight="1" s="41">
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="33" t="n"/>
       <c r="C6" s="33" t="n"/>
@@ -1976,7 +1990,7 @@
       <c r="G6" s="4" t="n"/>
       <c r="H6" s="2" t="n"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="56">
+    <row r="7" ht="15.75" customHeight="1" s="41">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>13/Mar/2021</t>
@@ -1986,17 +2000,17 @@
       <c r="C7" s="30" t="n"/>
       <c r="D7" s="33" t="n"/>
       <c r="E7" s="4" t="n"/>
-      <c r="F7" s="55" t="inlineStr">
+      <c r="F7" s="40" t="inlineStr">
         <is>
           <t>Complaint No.</t>
         </is>
       </c>
-      <c r="G7" s="55" t="n"/>
+      <c r="G7" s="40" t="n"/>
       <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="56">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="41">
       <c r="A8" s="33" t="inlineStr">
         <is>
           <t>BANK AL-HABIB</t>
@@ -2010,10 +2024,10 @@
       <c r="G8" s="4" t="n"/>
       <c r="H8" s="5" t="n"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="56">
+    <row r="9" ht="15.75" customHeight="1" s="41">
       <c r="A9" s="33" t="inlineStr">
         <is>
-          <t>T,LHR ZONE</t>
+          <t>A,LHR ZONE</t>
         </is>
       </c>
       <c r="B9" s="33" t="n"/>
@@ -2024,7 +2038,7 @@
       <c r="G9" s="4" t="n"/>
       <c r="H9" s="2" t="n"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="56">
+    <row r="10" ht="15.75" customHeight="1" s="41">
       <c r="A10" s="66" t="n"/>
       <c r="D10" s="33" t="n"/>
       <c r="E10" s="4" t="n"/>
@@ -2032,7 +2046,7 @@
       <c r="G10" s="4" t="n"/>
       <c r="H10" s="2" t="n"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="56">
+    <row r="11" ht="15.75" customHeight="1" s="41">
       <c r="A11" s="32" t="n"/>
       <c r="B11" s="32" t="n"/>
       <c r="C11" s="32" t="n"/>
@@ -2043,20 +2057,20 @@
       <c r="H11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="55" t="inlineStr">
+      <c r="A12" s="40" t="inlineStr">
         <is>
           <t>Subject:      Bill for subject_line:</t>
         </is>
       </c>
-      <c r="B12" s="55" t="n"/>
-      <c r="C12" s="55" t="n"/>
-      <c r="D12" s="55" t="n"/>
-      <c r="E12" s="55" t="n"/>
-      <c r="F12" s="55" t="n"/>
-      <c r="G12" s="55" t="n"/>
-      <c r="H12" s="55" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="56">
+      <c r="B12" s="40" t="n"/>
+      <c r="C12" s="40" t="n"/>
+      <c r="D12" s="40" t="n"/>
+      <c r="E12" s="40" t="n"/>
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="40" t="n"/>
+      <c r="H12" s="40" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="41">
       <c r="A13" s="4" t="n"/>
       <c r="B13" s="33" t="n"/>
       <c r="C13" s="33" t="n"/>
@@ -2114,7 +2128,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="31.5" customHeight="1" s="56">
+    <row r="16" ht="31.5" customHeight="1" s="41">
       <c r="A16" s="67" t="n">
         <v>1</v>
       </c>
@@ -2126,17 +2140,17 @@
       <c r="C16" s="62" t="n"/>
       <c r="D16" s="63" t="n"/>
       <c r="E16" s="67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="65" t="n"/>
       <c r="G16" s="67" t="n">
-        <v>4670</v>
+        <v>4670.33</v>
       </c>
       <c r="H16" s="69" t="n">
-        <v>4670</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" s="56">
+        <v>9340.66</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="41">
       <c r="A17" s="67" t="n"/>
       <c r="B17" s="68" t="n"/>
       <c r="C17" s="62" t="n"/>
@@ -2146,7 +2160,7 @@
       <c r="G17" s="67" t="n"/>
       <c r="H17" s="69" t="n"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="56">
+    <row r="18" ht="15.75" customHeight="1" s="41">
       <c r="A18" s="21" t="n"/>
       <c r="B18" s="22" t="n"/>
       <c r="C18" s="22" t="n"/>
@@ -2163,7 +2177,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="56">
+    <row r="19" ht="15.75" customHeight="1" s="41">
       <c r="A19" s="21" t="n"/>
       <c r="B19" s="22" t="n"/>
       <c r="C19" s="22" t="n"/>
@@ -2180,7 +2194,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="56">
+    <row r="20" ht="15.75" customHeight="1" s="41">
       <c r="A20" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -2188,13 +2202,13 @@
       </c>
       <c r="B20" s="26" t="inlineStr">
         <is>
-          <t>extra Charges</t>
+          <t>Visit Charges</t>
         </is>
       </c>
       <c r="C20" s="27" t="n"/>
       <c r="D20" s="28" t="n"/>
       <c r="E20" s="65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="65" t="inlineStr">
         <is>
@@ -2204,11 +2218,12 @@
       <c r="G20" s="7" t="n">
         <v>780</v>
       </c>
-      <c r="H20" s="8" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" s="56">
+      <c r="H20" s="8">
+        <f>G20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="41">
       <c r="A21" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -2236,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="56">
+    <row r="22" ht="15.75" customHeight="1" s="41">
       <c r="A22" s="21" t="n"/>
       <c r="B22" s="22" t="n"/>
       <c r="C22" s="22" t="n"/>
@@ -2273,7 +2288,7 @@
       <c r="G24" s="34" t="n"/>
       <c r="H24" s="34" t="n"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="56">
+    <row r="25" ht="15.75" customHeight="1" s="41">
       <c r="A25" s="33" t="inlineStr">
         <is>
           <t>Truly Yours,</t>
@@ -2311,7 +2326,7 @@
       <c r="G27" s="10" t="n"/>
       <c r="H27" s="10" t="n"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="56">
+    <row r="28" ht="15.75" customHeight="1" s="41">
       <c r="A28" s="33" t="inlineStr">
         <is>
           <t xml:space="preserve">   (Chief Executive)</t>
@@ -2363,16 +2378,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="56" min="1" max="3"/>
-    <col width="14.85546875" customWidth="1" style="56" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="56" min="5" max="7"/>
-    <col width="13.85546875" customWidth="1" style="56" min="8" max="8"/>
-    <col width="9.140625" customWidth="1" style="56" min="9" max="94"/>
-    <col width="9.140625" customWidth="1" style="56" min="95" max="16384"/>
+    <col width="9.140625" customWidth="1" style="41" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="41" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="41" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="41" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="41" min="9" max="94"/>
+    <col width="9.140625" customWidth="1" style="41" min="95" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="120.75" customHeight="1" s="56" thickBot="1"/>
-    <row r="2" ht="15.75" customHeight="1" s="56">
+    <row r="1" ht="120.75" customHeight="1" s="41" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="41">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="33" t="n"/>
       <c r="C2" s="1" t="inlineStr">
@@ -2382,7 +2397,7 @@
       </c>
       <c r="D2" s="64" t="inlineStr">
         <is>
-          <t>LB001-03-2021</t>
+          <t>LB002-03-2021</t>
         </is>
       </c>
       <c r="E2" s="62" t="n"/>
@@ -2390,7 +2405,7 @@
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="2" t="n"/>
     </row>
-    <row r="3" ht="16.5" customHeight="1" s="56" thickBot="1">
+    <row r="3" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A3" s="4" t="n"/>
       <c r="B3" s="33" t="n"/>
       <c r="C3" s="3" t="inlineStr">
@@ -2408,7 +2423,7 @@
       <c r="G3" s="4" t="n"/>
       <c r="H3" s="2" t="n"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1" s="56" thickBot="1">
+    <row r="4" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="33" t="n"/>
       <c r="C4" s="3" t="inlineStr">
@@ -2426,7 +2441,7 @@
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="2" t="n"/>
     </row>
-    <row r="5" ht="16.5" customHeight="1" s="56" thickBot="1">
+    <row r="5" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="33" t="n"/>
       <c r="C5" s="3" t="inlineStr">
@@ -2444,7 +2459,7 @@
       <c r="G5" s="4" t="n"/>
       <c r="H5" s="2" t="n"/>
     </row>
-    <row r="6" ht="21" customHeight="1" s="56">
+    <row r="6" ht="21" customHeight="1" s="41">
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="33" t="n"/>
       <c r="C6" s="33" t="n"/>
@@ -2454,7 +2469,7 @@
       <c r="G6" s="4" t="n"/>
       <c r="H6" s="2" t="n"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="56">
+    <row r="7" ht="15.75" customHeight="1" s="41">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>13/Mar/2021</t>
@@ -2464,17 +2479,17 @@
       <c r="C7" s="30" t="n"/>
       <c r="D7" s="33" t="n"/>
       <c r="E7" s="4" t="n"/>
-      <c r="F7" s="55" t="inlineStr">
+      <c r="F7" s="40" t="inlineStr">
         <is>
           <t>Complaint No.</t>
         </is>
       </c>
-      <c r="G7" s="55" t="n"/>
+      <c r="G7" s="40" t="n"/>
       <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="56">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="41">
       <c r="A8" s="33" t="inlineStr">
         <is>
           <t>BANK AL-HABIB</t>
@@ -2488,10 +2503,10 @@
       <c r="G8" s="4" t="n"/>
       <c r="H8" s="5" t="n"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="56">
+    <row r="9" ht="15.75" customHeight="1" s="41">
       <c r="A9" s="33" t="inlineStr">
         <is>
-          <t>T,LHR ZONE</t>
+          <t>LUN,LHR ZONE</t>
         </is>
       </c>
       <c r="B9" s="33" t="n"/>
@@ -2502,7 +2517,7 @@
       <c r="G9" s="4" t="n"/>
       <c r="H9" s="2" t="n"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="56">
+    <row r="10" ht="15.75" customHeight="1" s="41">
       <c r="A10" s="66" t="n"/>
       <c r="D10" s="33" t="n"/>
       <c r="E10" s="4" t="n"/>
@@ -2510,7 +2525,7 @@
       <c r="G10" s="4" t="n"/>
       <c r="H10" s="2" t="n"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="56">
+    <row r="11" ht="15.75" customHeight="1" s="41">
       <c r="A11" s="32" t="n"/>
       <c r="B11" s="32" t="n"/>
       <c r="C11" s="32" t="n"/>
@@ -2521,20 +2536,20 @@
       <c r="H11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="55" t="inlineStr">
+      <c r="A12" s="40" t="inlineStr">
         <is>
           <t>Subject:      Bill for subject_line:</t>
         </is>
       </c>
-      <c r="B12" s="55" t="n"/>
-      <c r="C12" s="55" t="n"/>
-      <c r="D12" s="55" t="n"/>
-      <c r="E12" s="55" t="n"/>
-      <c r="F12" s="55" t="n"/>
-      <c r="G12" s="55" t="n"/>
-      <c r="H12" s="55" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="56">
+      <c r="B12" s="40" t="n"/>
+      <c r="C12" s="40" t="n"/>
+      <c r="D12" s="40" t="n"/>
+      <c r="E12" s="40" t="n"/>
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="40" t="n"/>
+      <c r="H12" s="40" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="41">
       <c r="A13" s="4" t="n"/>
       <c r="B13" s="33" t="n"/>
       <c r="C13" s="33" t="n"/>
@@ -2592,39 +2607,53 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="31.5" customHeight="1" s="56">
+    <row r="16" ht="15.75" customHeight="1" s="41">
       <c r="A16" s="67" t="n">
         <v>1</v>
       </c>
       <c r="B16" s="68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gas Charging ( upto to 2 Ton) Inverter AC Unit Unit </t>
+          <t xml:space="preserve">cable </t>
         </is>
       </c>
       <c r="C16" s="62" t="n"/>
       <c r="D16" s="63" t="n"/>
-      <c r="E16" s="67" t="n">
-        <v>1</v>
+      <c r="E16" s="67" t="inlineStr">
+        <is>
+          <t>2rft</t>
+        </is>
       </c>
       <c r="F16" s="65" t="n"/>
       <c r="G16" s="67" t="n">
-        <v>4670</v>
+        <v>44.44</v>
       </c>
       <c r="H16" s="69" t="n">
-        <v>4670</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" s="56">
-      <c r="A17" s="67" t="n"/>
-      <c r="B17" s="68" t="n"/>
+        <v>88.88</v>
+      </c>
+    </row>
+    <row r="17" ht="31.5" customHeight="1" s="41">
+      <c r="A17" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Charging ( upto to 2 Ton) Inverter AC Unit Unit </t>
+        </is>
+      </c>
       <c r="C17" s="62" t="n"/>
       <c r="D17" s="63" t="n"/>
-      <c r="E17" s="67" t="n"/>
+      <c r="E17" s="67" t="n">
+        <v>2</v>
+      </c>
       <c r="F17" s="65" t="n"/>
-      <c r="G17" s="67" t="n"/>
-      <c r="H17" s="69" t="n"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" s="56">
+      <c r="G17" s="67" t="n">
+        <v>4670</v>
+      </c>
+      <c r="H17" s="69" t="n">
+        <v>9340</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="41">
       <c r="A18" s="21" t="n"/>
       <c r="B18" s="22" t="n"/>
       <c r="C18" s="22" t="n"/>
@@ -2641,7 +2670,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="56">
+    <row r="19" ht="15.75" customHeight="1" s="41">
       <c r="A19" s="21" t="n"/>
       <c r="B19" s="22" t="n"/>
       <c r="C19" s="22" t="n"/>
@@ -2658,7 +2687,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="56">
+    <row r="20" ht="15.75" customHeight="1" s="41">
       <c r="A20" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -2666,13 +2695,13 @@
       </c>
       <c r="B20" s="26" t="inlineStr">
         <is>
-          <t>extra Charges</t>
+          <t>Conveynce Charges</t>
         </is>
       </c>
       <c r="C20" s="27" t="n"/>
       <c r="D20" s="28" t="n"/>
       <c r="E20" s="65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" s="65" t="inlineStr">
         <is>
@@ -2682,11 +2711,12 @@
       <c r="G20" s="7" t="n">
         <v>780</v>
       </c>
-      <c r="H20" s="8" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" s="56">
+      <c r="H20" s="8">
+        <f>G20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="41">
       <c r="A21" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -2714,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="56">
+    <row r="22" ht="15.75" customHeight="1" s="41">
       <c r="A22" s="21" t="n"/>
       <c r="B22" s="22" t="n"/>
       <c r="C22" s="22" t="n"/>
@@ -2751,7 +2781,7 @@
       <c r="G24" s="34" t="n"/>
       <c r="H24" s="34" t="n"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="56">
+    <row r="25" ht="15.75" customHeight="1" s="41">
       <c r="A25" s="33" t="inlineStr">
         <is>
           <t>Truly Yours,</t>
@@ -2789,7 +2819,7 @@
       <c r="G27" s="10" t="n"/>
       <c r="H27" s="10" t="n"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="56">
+    <row r="28" ht="15.75" customHeight="1" s="41">
       <c r="A28" s="33" t="inlineStr">
         <is>
           <t xml:space="preserve">   (Chief Executive)</t>
@@ -2841,16 +2871,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="56" min="1" max="3"/>
-    <col width="14.85546875" customWidth="1" style="56" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="56" min="5" max="7"/>
-    <col width="13.85546875" customWidth="1" style="56" min="8" max="8"/>
-    <col width="9.140625" customWidth="1" style="56" min="9" max="94"/>
-    <col width="9.140625" customWidth="1" style="56" min="95" max="16384"/>
+    <col width="9.140625" customWidth="1" style="41" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="41" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="41" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="41" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="41" min="9" max="94"/>
+    <col width="9.140625" customWidth="1" style="41" min="95" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="120.75" customHeight="1" s="56" thickBot="1"/>
-    <row r="2" ht="15.75" customHeight="1" s="56">
+    <row r="1" ht="120.75" customHeight="1" s="41" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="41">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="33" t="n"/>
       <c r="C2" s="1" t="inlineStr">
@@ -2860,7 +2890,7 @@
       </c>
       <c r="D2" s="64" t="inlineStr">
         <is>
-          <t>LB001-03-2021</t>
+          <t>LB003-03-2021</t>
         </is>
       </c>
       <c r="E2" s="62" t="n"/>
@@ -2868,7 +2898,7 @@
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="2" t="n"/>
     </row>
-    <row r="3" ht="16.5" customHeight="1" s="56" thickBot="1">
+    <row r="3" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A3" s="4" t="n"/>
       <c r="B3" s="33" t="n"/>
       <c r="C3" s="3" t="inlineStr">
@@ -2886,7 +2916,7 @@
       <c r="G3" s="4" t="n"/>
       <c r="H3" s="2" t="n"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1" s="56" thickBot="1">
+    <row r="4" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="33" t="n"/>
       <c r="C4" s="3" t="inlineStr">
@@ -2904,7 +2934,7 @@
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="2" t="n"/>
     </row>
-    <row r="5" ht="16.5" customHeight="1" s="56" thickBot="1">
+    <row r="5" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="33" t="n"/>
       <c r="C5" s="3" t="inlineStr">
@@ -2922,7 +2952,7 @@
       <c r="G5" s="4" t="n"/>
       <c r="H5" s="2" t="n"/>
     </row>
-    <row r="6" ht="21" customHeight="1" s="56">
+    <row r="6" ht="21" customHeight="1" s="41">
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="33" t="n"/>
       <c r="C6" s="33" t="n"/>
@@ -2932,7 +2962,7 @@
       <c r="G6" s="4" t="n"/>
       <c r="H6" s="2" t="n"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="56">
+    <row r="7" ht="15.75" customHeight="1" s="41">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>13/Mar/2021</t>
@@ -2942,17 +2972,17 @@
       <c r="C7" s="30" t="n"/>
       <c r="D7" s="33" t="n"/>
       <c r="E7" s="4" t="n"/>
-      <c r="F7" s="55" t="inlineStr">
+      <c r="F7" s="40" t="inlineStr">
         <is>
           <t>Complaint No.</t>
         </is>
       </c>
-      <c r="G7" s="55" t="n"/>
+      <c r="G7" s="40" t="n"/>
       <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="56">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="41">
       <c r="A8" s="33" t="inlineStr">
         <is>
           <t>BANK AL-HABIB</t>
@@ -2966,10 +2996,10 @@
       <c r="G8" s="4" t="n"/>
       <c r="H8" s="5" t="n"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="56">
+    <row r="9" ht="15.75" customHeight="1" s="41">
       <c r="A9" s="33" t="inlineStr">
         <is>
-          <t>T,LHR ZONE</t>
+          <t>LUN,LHR ZONE</t>
         </is>
       </c>
       <c r="B9" s="33" t="n"/>
@@ -2980,7 +3010,7 @@
       <c r="G9" s="4" t="n"/>
       <c r="H9" s="2" t="n"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="56">
+    <row r="10" ht="15.75" customHeight="1" s="41">
       <c r="A10" s="66" t="n"/>
       <c r="D10" s="33" t="n"/>
       <c r="E10" s="4" t="n"/>
@@ -2988,7 +3018,7 @@
       <c r="G10" s="4" t="n"/>
       <c r="H10" s="2" t="n"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="56">
+    <row r="11" ht="15.75" customHeight="1" s="41">
       <c r="A11" s="32" t="n"/>
       <c r="B11" s="32" t="n"/>
       <c r="C11" s="32" t="n"/>
@@ -2999,20 +3029,20 @@
       <c r="H11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="55" t="inlineStr">
+      <c r="A12" s="40" t="inlineStr">
         <is>
           <t>Subject:      Bill for subject_line:</t>
         </is>
       </c>
-      <c r="B12" s="55" t="n"/>
-      <c r="C12" s="55" t="n"/>
-      <c r="D12" s="55" t="n"/>
-      <c r="E12" s="55" t="n"/>
-      <c r="F12" s="55" t="n"/>
-      <c r="G12" s="55" t="n"/>
-      <c r="H12" s="55" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="56">
+      <c r="B12" s="40" t="n"/>
+      <c r="C12" s="40" t="n"/>
+      <c r="D12" s="40" t="n"/>
+      <c r="E12" s="40" t="n"/>
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="40" t="n"/>
+      <c r="H12" s="40" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="41">
       <c r="A13" s="4" t="n"/>
       <c r="B13" s="33" t="n"/>
       <c r="C13" s="33" t="n"/>
@@ -3070,29 +3100,31 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="31.5" customHeight="1" s="56">
+    <row r="16" ht="15.75" customHeight="1" s="41">
       <c r="A16" s="67" t="n">
         <v>1</v>
       </c>
       <c r="B16" s="68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gas Charging ( upto to 2 Ton) Inverter AC Unit Unit </t>
+          <t xml:space="preserve">cable </t>
         </is>
       </c>
       <c r="C16" s="62" t="n"/>
       <c r="D16" s="63" t="n"/>
-      <c r="E16" s="67" t="n">
-        <v>1</v>
+      <c r="E16" s="67" t="inlineStr">
+        <is>
+          <t>2rft</t>
+        </is>
       </c>
       <c r="F16" s="65" t="n"/>
       <c r="G16" s="67" t="n">
-        <v>4670</v>
+        <v>44.44</v>
       </c>
       <c r="H16" s="69" t="n">
-        <v>4670</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" s="56">
+        <v>88.88</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="41">
       <c r="A17" s="67" t="n"/>
       <c r="B17" s="68" t="n"/>
       <c r="C17" s="62" t="n"/>
@@ -3102,7 +3134,7 @@
       <c r="G17" s="67" t="n"/>
       <c r="H17" s="69" t="n"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="56">
+    <row r="18" ht="15.75" customHeight="1" s="41">
       <c r="A18" s="21" t="n"/>
       <c r="B18" s="22" t="n"/>
       <c r="C18" s="22" t="n"/>
@@ -3119,7 +3151,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="56">
+    <row r="19" ht="15.75" customHeight="1" s="41">
       <c r="A19" s="21" t="n"/>
       <c r="B19" s="22" t="n"/>
       <c r="C19" s="22" t="n"/>
@@ -3136,7 +3168,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="56">
+    <row r="20" ht="15.75" customHeight="1" s="41">
       <c r="A20" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -3144,13 +3176,13 @@
       </c>
       <c r="B20" s="26" t="inlineStr">
         <is>
-          <t>extra Charges</t>
+          <t>Conveynce Charges</t>
         </is>
       </c>
       <c r="C20" s="27" t="n"/>
       <c r="D20" s="28" t="n"/>
       <c r="E20" s="65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" s="65" t="inlineStr">
         <is>
@@ -3160,11 +3192,12 @@
       <c r="G20" s="7" t="n">
         <v>780</v>
       </c>
-      <c r="H20" s="8" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" s="56">
+      <c r="H20" s="8">
+        <f>G20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="41">
       <c r="A21" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -3192,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="56">
+    <row r="22" ht="15.75" customHeight="1" s="41">
       <c r="A22" s="21" t="n"/>
       <c r="B22" s="22" t="n"/>
       <c r="C22" s="22" t="n"/>
@@ -3229,7 +3262,7 @@
       <c r="G24" s="34" t="n"/>
       <c r="H24" s="34" t="n"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="56">
+    <row r="25" ht="15.75" customHeight="1" s="41">
       <c r="A25" s="33" t="inlineStr">
         <is>
           <t>Truly Yours,</t>
@@ -3267,7 +3300,7 @@
       <c r="G27" s="10" t="n"/>
       <c r="H27" s="10" t="n"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="56">
+    <row r="28" ht="15.75" customHeight="1" s="41">
       <c r="A28" s="33" t="inlineStr">
         <is>
           <t xml:space="preserve">   (Chief Executive)</t>
@@ -3311,7 +3344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3319,16 +3352,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="56" min="1" max="3"/>
-    <col width="14.85546875" customWidth="1" style="56" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="56" min="5" max="7"/>
-    <col width="13.85546875" customWidth="1" style="56" min="8" max="8"/>
-    <col width="9.140625" customWidth="1" style="56" min="9" max="94"/>
-    <col width="9.140625" customWidth="1" style="56" min="95" max="16384"/>
+    <col width="9.140625" customWidth="1" style="41" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="41" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="41" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="41" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="41" min="9" max="94"/>
+    <col width="9.140625" customWidth="1" style="41" min="95" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="120.75" customHeight="1" s="56" thickBot="1"/>
-    <row r="2" ht="15.75" customHeight="1" s="56">
+    <row r="1" ht="120.75" customHeight="1" s="41" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="41">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="33" t="n"/>
       <c r="C2" s="1" t="inlineStr">
@@ -3338,7 +3371,7 @@
       </c>
       <c r="D2" s="64" t="inlineStr">
         <is>
-          <t>LB1345-03-2021</t>
+          <t>LB004-03-2021</t>
         </is>
       </c>
       <c r="E2" s="62" t="n"/>
@@ -3346,7 +3379,7 @@
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="2" t="n"/>
     </row>
-    <row r="3" ht="16.5" customHeight="1" s="56" thickBot="1">
+    <row r="3" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A3" s="4" t="n"/>
       <c r="B3" s="33" t="n"/>
       <c r="C3" s="3" t="inlineStr">
@@ -3364,7 +3397,7 @@
       <c r="G3" s="4" t="n"/>
       <c r="H3" s="2" t="n"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1" s="56" thickBot="1">
+    <row r="4" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="33" t="n"/>
       <c r="C4" s="3" t="inlineStr">
@@ -3382,7 +3415,7 @@
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="2" t="n"/>
     </row>
-    <row r="5" ht="16.5" customHeight="1" s="56" thickBot="1">
+    <row r="5" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="33" t="n"/>
       <c r="C5" s="3" t="inlineStr">
@@ -3400,7 +3433,7 @@
       <c r="G5" s="4" t="n"/>
       <c r="H5" s="2" t="n"/>
     </row>
-    <row r="6" ht="21" customHeight="1" s="56">
+    <row r="6" ht="21" customHeight="1" s="41">
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="33" t="n"/>
       <c r="C6" s="33" t="n"/>
@@ -3410,7 +3443,7 @@
       <c r="G6" s="4" t="n"/>
       <c r="H6" s="2" t="n"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="56">
+    <row r="7" ht="15.75" customHeight="1" s="41">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>13/Mar/2021</t>
@@ -3420,17 +3453,17 @@
       <c r="C7" s="30" t="n"/>
       <c r="D7" s="33" t="n"/>
       <c r="E7" s="4" t="n"/>
-      <c r="F7" s="55" t="inlineStr">
+      <c r="F7" s="40" t="inlineStr">
         <is>
           <t>Complaint No.</t>
         </is>
       </c>
-      <c r="G7" s="55" t="n"/>
+      <c r="G7" s="40" t="n"/>
       <c r="H7" s="5" t="n">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="41">
       <c r="A8" s="33" t="inlineStr">
         <is>
           <t>BANK AL-HABIB</t>
@@ -3444,10 +3477,10 @@
       <c r="G8" s="4" t="n"/>
       <c r="H8" s="5" t="n"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="56">
+    <row r="9" ht="15.75" customHeight="1" s="41">
       <c r="A9" s="33" t="inlineStr">
         <is>
-          <t>FFFF,LHR ZONE</t>
+          <t>G,LHR ZONE</t>
         </is>
       </c>
       <c r="B9" s="33" t="n"/>
@@ -3458,7 +3491,7 @@
       <c r="G9" s="4" t="n"/>
       <c r="H9" s="2" t="n"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="56">
+    <row r="10" ht="15.75" customHeight="1" s="41">
       <c r="A10" s="66" t="n"/>
       <c r="D10" s="33" t="n"/>
       <c r="E10" s="4" t="n"/>
@@ -3466,7 +3499,7 @@
       <c r="G10" s="4" t="n"/>
       <c r="H10" s="2" t="n"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="56">
+    <row r="11" ht="15.75" customHeight="1" s="41">
       <c r="A11" s="32" t="n"/>
       <c r="B11" s="32" t="n"/>
       <c r="C11" s="32" t="n"/>
@@ -3477,20 +3510,20 @@
       <c r="H11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="55" t="inlineStr">
+      <c r="A12" s="40" t="inlineStr">
         <is>
           <t>Subject:      Bill for subject_line:</t>
         </is>
       </c>
-      <c r="B12" s="55" t="n"/>
-      <c r="C12" s="55" t="n"/>
-      <c r="D12" s="55" t="n"/>
-      <c r="E12" s="55" t="n"/>
-      <c r="F12" s="55" t="n"/>
-      <c r="G12" s="55" t="n"/>
-      <c r="H12" s="55" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="56">
+      <c r="B12" s="40" t="n"/>
+      <c r="C12" s="40" t="n"/>
+      <c r="D12" s="40" t="n"/>
+      <c r="E12" s="40" t="n"/>
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="40" t="n"/>
+      <c r="H12" s="40" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="41">
       <c r="A13" s="4" t="n"/>
       <c r="B13" s="33" t="n"/>
       <c r="C13" s="33" t="n"/>
@@ -3548,7 +3581,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="31.5" customHeight="1" s="56">
+    <row r="16" ht="31.5" customHeight="1" s="41">
       <c r="A16" s="67" t="n">
         <v>1</v>
       </c>
@@ -3559,40 +3592,30 @@
       </c>
       <c r="C16" s="62" t="n"/>
       <c r="D16" s="63" t="n"/>
-      <c r="E16" s="67" t="n">
-        <v>1</v>
+      <c r="E16" s="67" t="inlineStr">
+        <is>
+          <t>3rft</t>
+        </is>
       </c>
       <c r="F16" s="65" t="n"/>
       <c r="G16" s="67" t="n">
         <v>4670</v>
       </c>
       <c r="H16" s="69" t="n">
-        <v>4670</v>
-      </c>
-    </row>
-    <row r="17" ht="31.5" customHeight="1" s="56">
-      <c r="A17" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gas Charging ( upto to 2 Ton) Inverter AC Unit Unit </t>
-        </is>
-      </c>
+        <v>14010</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="41">
+      <c r="A17" s="67" t="n"/>
+      <c r="B17" s="68" t="n"/>
       <c r="C17" s="62" t="n"/>
       <c r="D17" s="63" t="n"/>
-      <c r="E17" s="67" t="n">
-        <v>1</v>
-      </c>
+      <c r="E17" s="67" t="n"/>
       <c r="F17" s="65" t="n"/>
-      <c r="G17" s="67" t="n">
-        <v>4670</v>
-      </c>
-      <c r="H17" s="69" t="n">
-        <v>4670</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" s="56">
+      <c r="G17" s="67" t="n"/>
+      <c r="H17" s="69" t="n"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="41">
       <c r="A18" s="21" t="n"/>
       <c r="B18" s="22" t="n"/>
       <c r="C18" s="22" t="n"/>
@@ -3609,7 +3632,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="56">
+    <row r="19" ht="15.75" customHeight="1" s="41">
       <c r="A19" s="21" t="n"/>
       <c r="B19" s="22" t="n"/>
       <c r="C19" s="22" t="n"/>
@@ -3626,7 +3649,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="56">
+    <row r="20" ht="15.75" customHeight="1" s="41">
       <c r="A20" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -3634,13 +3657,13 @@
       </c>
       <c r="B20" s="26" t="inlineStr">
         <is>
-          <t>extra Charges</t>
+          <t>Visit Charges</t>
         </is>
       </c>
       <c r="C20" s="27" t="n"/>
       <c r="D20" s="28" t="n"/>
       <c r="E20" s="65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="65" t="inlineStr">
         <is>
@@ -3650,11 +3673,12 @@
       <c r="G20" s="7" t="n">
         <v>780</v>
       </c>
-      <c r="H20" s="8" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" s="56">
+      <c r="H20" s="8">
+        <f>G20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="41">
       <c r="A21" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -3682,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="56">
+    <row r="22" ht="15.75" customHeight="1" s="41">
       <c r="A22" s="21" t="n"/>
       <c r="B22" s="22" t="n"/>
       <c r="C22" s="22" t="n"/>
@@ -3719,7 +3743,7 @@
       <c r="G24" s="34" t="n"/>
       <c r="H24" s="34" t="n"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="56">
+    <row r="25" ht="15.75" customHeight="1" s="41">
       <c r="A25" s="33" t="inlineStr">
         <is>
           <t>Truly Yours,</t>
@@ -3757,7 +3781,7 @@
       <c r="G27" s="10" t="n"/>
       <c r="H27" s="10" t="n"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="56">
+    <row r="28" ht="15.75" customHeight="1" s="41">
       <c r="A28" s="33" t="inlineStr">
         <is>
           <t xml:space="preserve">   (Chief Executive)</t>
@@ -3771,20 +3795,6 @@
       <c r="G28" s="10" t="n"/>
       <c r="H28" s="10" t="n"/>
     </row>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
     <row r="43">
       <c r="H43" t="inlineStr">
         <is>
@@ -3807,4 +3817,1558 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="41" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="41" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="41" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="41" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="41" min="9" max="94"/>
+    <col width="9.140625" customWidth="1" style="41" min="95" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="120.75" customHeight="1" s="41" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="41">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="33" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D2" s="64" t="inlineStr">
+        <is>
+          <t>LB004-03-2021</t>
+        </is>
+      </c>
+      <c r="E2" s="62" t="n"/>
+      <c r="F2" s="63" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="41" thickBot="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>STRN</t>
+        </is>
+      </c>
+      <c r="D3" s="64" t="inlineStr">
+        <is>
+          <t>8187702-6</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="41" thickBot="1">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="33" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NTN</t>
+        </is>
+      </c>
+      <c r="D4" s="64" t="inlineStr">
+        <is>
+          <t>35101-2935417-3</t>
+        </is>
+      </c>
+      <c r="E4" s="62" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="41" thickBot="1">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="33" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>AC/NO</t>
+        </is>
+      </c>
+      <c r="D5" s="65" t="inlineStr">
+        <is>
+          <t>0018 0981 0217 5901</t>
+        </is>
+      </c>
+      <c r="E5" s="62" t="n"/>
+      <c r="F5" s="63" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" s="41">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="33" t="n"/>
+      <c r="C6" s="33" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="41">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>13/Mar/2021</t>
+        </is>
+      </c>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="30" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="40" t="inlineStr">
+        <is>
+          <t>Complaint No.</t>
+        </is>
+      </c>
+      <c r="G7" s="40" t="n"/>
+      <c r="H7" s="5" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="41">
+      <c r="A8" s="33" t="inlineStr">
+        <is>
+          <t>BANK AL-HABIB</t>
+        </is>
+      </c>
+      <c r="B8" s="33" t="n"/>
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="41">
+      <c r="A9" s="33" t="inlineStr">
+        <is>
+          <t>G,LHR ZONE</t>
+        </is>
+      </c>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="32" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="41">
+      <c r="A10" s="66" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="41">
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="32" t="n"/>
+      <c r="C11" s="32" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="40" t="inlineStr">
+        <is>
+          <t>Subject:      Bill for subject_line:</t>
+        </is>
+      </c>
+      <c r="B12" s="40" t="n"/>
+      <c r="C12" s="40" t="n"/>
+      <c r="D12" s="40" t="n"/>
+      <c r="E12" s="40" t="n"/>
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="40" t="n"/>
+      <c r="H12" s="40" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="41">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="33" t="n"/>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="33" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="61" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B14" s="62" t="n"/>
+      <c r="C14" s="62" t="n"/>
+      <c r="D14" s="62" t="n"/>
+      <c r="E14" s="62" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="62" t="n"/>
+      <c r="H14" s="63" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="61" t="inlineStr">
+        <is>
+          <t>Sr No</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C15" s="62" t="n"/>
+      <c r="D15" s="63" t="n"/>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="F15" s="61" t="inlineStr">
+        <is>
+          <t>Job</t>
+        </is>
+      </c>
+      <c r="G15" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rate </t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="31.5" customHeight="1" s="41">
+      <c r="A16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Charging ( upto to 2 Ton) Inverter AC Unit Unit </t>
+        </is>
+      </c>
+      <c r="C16" s="62" t="n"/>
+      <c r="D16" s="63" t="n"/>
+      <c r="E16" s="67" t="inlineStr">
+        <is>
+          <t>3rft</t>
+        </is>
+      </c>
+      <c r="F16" s="65" t="n"/>
+      <c r="G16" s="67" t="n">
+        <v>4670</v>
+      </c>
+      <c r="H16" s="69" t="n">
+        <v>14010</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="41">
+      <c r="A17" s="67" t="n"/>
+      <c r="B17" s="68" t="n"/>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="67" t="n"/>
+      <c r="F17" s="65" t="n"/>
+      <c r="G17" s="67" t="n"/>
+      <c r="H17" s="69" t="n"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="41">
+      <c r="A18" s="21" t="n"/>
+      <c r="B18" s="22" t="n"/>
+      <c r="C18" s="22" t="n"/>
+      <c r="D18" s="22" t="n"/>
+      <c r="E18" s="22" t="n"/>
+      <c r="F18" s="22" t="n"/>
+      <c r="G18" s="22" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="H18" s="31">
+        <f>SUM(H16:H17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="41">
+      <c r="A19" s="21" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="22" t="n"/>
+      <c r="D19" s="22" t="n"/>
+      <c r="E19" s="22" t="n"/>
+      <c r="F19" s="22" t="n"/>
+      <c r="G19" s="22" t="inlineStr">
+        <is>
+          <t>Tax (16%)</t>
+        </is>
+      </c>
+      <c r="H19" s="31">
+        <f>H18*0.16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="41">
+      <c r="A20" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B20" s="26" t="inlineStr">
+        <is>
+          <t>Visit Charges</t>
+        </is>
+      </c>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="28" t="n"/>
+      <c r="E20" s="65" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>780</v>
+      </c>
+      <c r="H20" s="8">
+        <f>G20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="41">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="26" t="inlineStr">
+        <is>
+          <t>Out of City Charges</t>
+        </is>
+      </c>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="28" t="n"/>
+      <c r="E21" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="41">
+      <c r="A22" s="21" t="n"/>
+      <c r="B22" s="22" t="n"/>
+      <c r="C22" s="22" t="n"/>
+      <c r="D22" s="22" t="n"/>
+      <c r="E22" s="22" t="n"/>
+      <c r="F22" s="22" t="n"/>
+      <c r="G22" s="22" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H18:H21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="34" t="n"/>
+      <c r="B23" s="34" t="n"/>
+      <c r="C23" s="34" t="n"/>
+      <c r="D23" s="34" t="n"/>
+      <c r="E23" s="34" t="n"/>
+      <c r="F23" s="34" t="n"/>
+      <c r="G23" s="34" t="n"/>
+      <c r="H23" s="34" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="n"/>
+      <c r="B24" s="34" t="n"/>
+      <c r="C24" s="34" t="n"/>
+      <c r="D24" s="34" t="n"/>
+      <c r="E24" s="34" t="n"/>
+      <c r="F24" s="34" t="n"/>
+      <c r="G24" s="34" t="n"/>
+      <c r="H24" s="34" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="41">
+      <c r="A25" s="33" t="inlineStr">
+        <is>
+          <t>Truly Yours,</t>
+        </is>
+      </c>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="n"/>
+      <c r="B26" s="34" t="n"/>
+      <c r="C26" s="34" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="34" t="n"/>
+      <c r="F26" s="34" t="n"/>
+      <c r="G26" s="34" t="n"/>
+      <c r="H26" s="34" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="29" t="inlineStr">
+        <is>
+          <t>ASAD ALI</t>
+        </is>
+      </c>
+      <c r="B27" s="29" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="10" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="10" t="n"/>
+      <c r="G27" s="10" t="n"/>
+      <c r="H27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="41">
+      <c r="A28" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   (Chief Executive)</t>
+        </is>
+      </c>
+      <c r="B28" s="33" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+    </row>
+    <row r="43">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="41" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="41" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="41" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="41" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="41" min="9" max="94"/>
+    <col width="9.140625" customWidth="1" style="41" min="95" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="120.75" customHeight="1" s="41" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="41">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="33" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D2" s="64" t="inlineStr">
+        <is>
+          <t>LB005-03-2021</t>
+        </is>
+      </c>
+      <c r="E2" s="62" t="n"/>
+      <c r="F2" s="63" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="41" thickBot="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>STRN</t>
+        </is>
+      </c>
+      <c r="D3" s="64" t="inlineStr">
+        <is>
+          <t>8187702-6</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="41" thickBot="1">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="33" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NTN</t>
+        </is>
+      </c>
+      <c r="D4" s="64" t="inlineStr">
+        <is>
+          <t>35101-2935417-3</t>
+        </is>
+      </c>
+      <c r="E4" s="62" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="41" thickBot="1">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="33" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>AC/NO</t>
+        </is>
+      </c>
+      <c r="D5" s="65" t="inlineStr">
+        <is>
+          <t>0018 0981 0217 5901</t>
+        </is>
+      </c>
+      <c r="E5" s="62" t="n"/>
+      <c r="F5" s="63" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" s="41">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="33" t="n"/>
+      <c r="C6" s="33" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="41">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>13/Mar/2021</t>
+        </is>
+      </c>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="30" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="40" t="inlineStr">
+        <is>
+          <t>Complaint No.</t>
+        </is>
+      </c>
+      <c r="G7" s="40" t="n"/>
+      <c r="H7" s="5" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="41">
+      <c r="A8" s="33" t="inlineStr">
+        <is>
+          <t>BANK AL-HABIB</t>
+        </is>
+      </c>
+      <c r="B8" s="33" t="n"/>
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="41">
+      <c r="A9" s="33" t="inlineStr">
+        <is>
+          <t>MALKWAL,LHR ZONE</t>
+        </is>
+      </c>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="32" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="41">
+      <c r="A10" s="66" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="41">
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="32" t="n"/>
+      <c r="C11" s="32" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="40" t="inlineStr">
+        <is>
+          <t>Subject:      Bill for subject_line:</t>
+        </is>
+      </c>
+      <c r="B12" s="40" t="n"/>
+      <c r="C12" s="40" t="n"/>
+      <c r="D12" s="40" t="n"/>
+      <c r="E12" s="40" t="n"/>
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="40" t="n"/>
+      <c r="H12" s="40" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="41">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="33" t="n"/>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="33" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="61" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B14" s="62" t="n"/>
+      <c r="C14" s="62" t="n"/>
+      <c r="D14" s="62" t="n"/>
+      <c r="E14" s="62" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="62" t="n"/>
+      <c r="H14" s="63" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="61" t="inlineStr">
+        <is>
+          <t>Sr No</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C15" s="62" t="n"/>
+      <c r="D15" s="63" t="n"/>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="F15" s="61" t="inlineStr">
+        <is>
+          <t>Job</t>
+        </is>
+      </c>
+      <c r="G15" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rate </t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="41">
+      <c r="A16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copper </t>
+        </is>
+      </c>
+      <c r="C16" s="62" t="n"/>
+      <c r="D16" s="63" t="n"/>
+      <c r="E16" s="67" t="inlineStr">
+        <is>
+          <t>1rft</t>
+        </is>
+      </c>
+      <c r="F16" s="65" t="n"/>
+      <c r="G16" s="67" t="n">
+        <v>22.333</v>
+      </c>
+      <c r="H16" s="69" t="n">
+        <v>22.333</v>
+      </c>
+    </row>
+    <row r="17" ht="31.5" customHeight="1" s="41">
+      <c r="A17" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Charging ( upto to 2 Ton) Inverter AC Unit Unit </t>
+        </is>
+      </c>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="65" t="n"/>
+      <c r="G17" s="67" t="n">
+        <v>4670</v>
+      </c>
+      <c r="H17" s="69" t="n">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="41">
+      <c r="A18" s="21" t="n"/>
+      <c r="B18" s="22" t="n"/>
+      <c r="C18" s="22" t="n"/>
+      <c r="D18" s="22" t="n"/>
+      <c r="E18" s="22" t="n"/>
+      <c r="F18" s="22" t="n"/>
+      <c r="G18" s="22" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="H18" s="31">
+        <f>SUM(H16:H17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="41">
+      <c r="A19" s="21" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="22" t="n"/>
+      <c r="D19" s="22" t="n"/>
+      <c r="E19" s="22" t="n"/>
+      <c r="F19" s="22" t="n"/>
+      <c r="G19" s="22" t="inlineStr">
+        <is>
+          <t>Tax (16%)</t>
+        </is>
+      </c>
+      <c r="H19" s="31">
+        <f>H18*0.16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="41">
+      <c r="A20" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B20" s="26" t="inlineStr">
+        <is>
+          <t>Conveynce Charges</t>
+        </is>
+      </c>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="28" t="n"/>
+      <c r="E20" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>780</v>
+      </c>
+      <c r="H20" s="8">
+        <f>G20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="41">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="26" t="inlineStr">
+        <is>
+          <t>Out of City Charges</t>
+        </is>
+      </c>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="28" t="n"/>
+      <c r="E21" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="41">
+      <c r="A22" s="21" t="n"/>
+      <c r="B22" s="22" t="n"/>
+      <c r="C22" s="22" t="n"/>
+      <c r="D22" s="22" t="n"/>
+      <c r="E22" s="22" t="n"/>
+      <c r="F22" s="22" t="n"/>
+      <c r="G22" s="22" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H18:H21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="34" t="n"/>
+      <c r="B23" s="34" t="n"/>
+      <c r="C23" s="34" t="n"/>
+      <c r="D23" s="34" t="n"/>
+      <c r="E23" s="34" t="n"/>
+      <c r="F23" s="34" t="n"/>
+      <c r="G23" s="34" t="n"/>
+      <c r="H23" s="34" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="n"/>
+      <c r="B24" s="34" t="n"/>
+      <c r="C24" s="34" t="n"/>
+      <c r="D24" s="34" t="n"/>
+      <c r="E24" s="34" t="n"/>
+      <c r="F24" s="34" t="n"/>
+      <c r="G24" s="34" t="n"/>
+      <c r="H24" s="34" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="41">
+      <c r="A25" s="33" t="inlineStr">
+        <is>
+          <t>Truly Yours,</t>
+        </is>
+      </c>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="n"/>
+      <c r="B26" s="34" t="n"/>
+      <c r="C26" s="34" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="34" t="n"/>
+      <c r="F26" s="34" t="n"/>
+      <c r="G26" s="34" t="n"/>
+      <c r="H26" s="34" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="29" t="inlineStr">
+        <is>
+          <t>ASAD ALI</t>
+        </is>
+      </c>
+      <c r="B27" s="29" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="10" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="10" t="n"/>
+      <c r="G27" s="10" t="n"/>
+      <c r="H27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="41">
+      <c r="A28" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   (Chief Executive)</t>
+        </is>
+      </c>
+      <c r="B28" s="33" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+    </row>
+    <row r="43">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="41" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="41" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="41" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="41" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="41" min="9" max="94"/>
+    <col width="9.140625" customWidth="1" style="41" min="95" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="120.75" customHeight="1" s="41" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="41">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="33" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D2" s="64" t="inlineStr">
+        <is>
+          <t>LB006-03-2021</t>
+        </is>
+      </c>
+      <c r="E2" s="62" t="n"/>
+      <c r="F2" s="63" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="41" thickBot="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>STRN</t>
+        </is>
+      </c>
+      <c r="D3" s="64" t="inlineStr">
+        <is>
+          <t>8187702-6</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="41" thickBot="1">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="33" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NTN</t>
+        </is>
+      </c>
+      <c r="D4" s="64" t="inlineStr">
+        <is>
+          <t>35101-2935417-3</t>
+        </is>
+      </c>
+      <c r="E4" s="62" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="41" thickBot="1">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="33" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>AC/NO</t>
+        </is>
+      </c>
+      <c r="D5" s="65" t="inlineStr">
+        <is>
+          <t>0018 0981 0217 5901</t>
+        </is>
+      </c>
+      <c r="E5" s="62" t="n"/>
+      <c r="F5" s="63" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" s="41">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="33" t="n"/>
+      <c r="C6" s="33" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="41">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>13/Mar/2021</t>
+        </is>
+      </c>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="30" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="40" t="inlineStr">
+        <is>
+          <t>Complaint No.</t>
+        </is>
+      </c>
+      <c r="G7" s="40" t="n"/>
+      <c r="H7" s="5" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="41">
+      <c r="A8" s="33" t="inlineStr">
+        <is>
+          <t>BANK AL-HABIB</t>
+        </is>
+      </c>
+      <c r="B8" s="33" t="n"/>
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="41">
+      <c r="A9" s="33" t="inlineStr">
+        <is>
+          <t>LOL,LHR ZONE</t>
+        </is>
+      </c>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="32" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="41">
+      <c r="A10" s="66" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="41">
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="32" t="n"/>
+      <c r="C11" s="32" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="40" t="inlineStr">
+        <is>
+          <t>Subject:      Bill for subject_line:</t>
+        </is>
+      </c>
+      <c r="B12" s="40" t="n"/>
+      <c r="C12" s="40" t="n"/>
+      <c r="D12" s="40" t="n"/>
+      <c r="E12" s="40" t="n"/>
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="40" t="n"/>
+      <c r="H12" s="40" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="41">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="33" t="n"/>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="33" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="61" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B14" s="62" t="n"/>
+      <c r="C14" s="62" t="n"/>
+      <c r="D14" s="62" t="n"/>
+      <c r="E14" s="62" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="62" t="n"/>
+      <c r="H14" s="63" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="61" t="inlineStr">
+        <is>
+          <t>Sr No</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C15" s="62" t="n"/>
+      <c r="D15" s="63" t="n"/>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="F15" s="61" t="inlineStr">
+        <is>
+          <t>Job</t>
+        </is>
+      </c>
+      <c r="G15" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rate </t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="41">
+      <c r="A16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cable2 </t>
+        </is>
+      </c>
+      <c r="C16" s="62" t="n"/>
+      <c r="D16" s="63" t="n"/>
+      <c r="E16" s="67" t="inlineStr">
+        <is>
+          <t>2rft</t>
+        </is>
+      </c>
+      <c r="F16" s="65" t="n"/>
+      <c r="G16" s="67" t="n">
+        <v>44</v>
+      </c>
+      <c r="H16" s="69" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="41">
+      <c r="A17" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cable1 </t>
+        </is>
+      </c>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="70" t="inlineStr">
+        <is>
+          <t>2rft</t>
+        </is>
+      </c>
+      <c r="F17" s="72" t="n"/>
+      <c r="G17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="41">
+      <c r="A18" s="70" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cable </t>
+        </is>
+      </c>
+      <c r="C18" s="62" t="n"/>
+      <c r="D18" s="63" t="n"/>
+      <c r="E18" s="70" t="inlineStr">
+        <is>
+          <t>2rft</t>
+        </is>
+      </c>
+      <c r="F18" s="72" t="n"/>
+      <c r="G18" s="70" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="H18" s="73" t="n">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="19" ht="31.5" customHeight="1" s="41">
+      <c r="A19" s="70" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monthly general Servicing (upto to 2 Ton) </t>
+        </is>
+      </c>
+      <c r="C19" s="62" t="n"/>
+      <c r="D19" s="63" t="n"/>
+      <c r="E19" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="72" t="n"/>
+      <c r="G19" s="70" t="n">
+        <v>300</v>
+      </c>
+      <c r="H19" s="73" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" ht="31.5" customHeight="1" s="41">
+      <c r="A20" s="67" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Charging ( upto to 2 Ton) Inverter AC Unit Unit </t>
+        </is>
+      </c>
+      <c r="C20" s="62" t="n"/>
+      <c r="D20" s="63" t="n"/>
+      <c r="E20" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="65" t="n"/>
+      <c r="G20" s="67" t="n">
+        <v>4670</v>
+      </c>
+      <c r="H20" s="69" t="n">
+        <v>9340</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="41">
+      <c r="A21" s="21" t="n"/>
+      <c r="B21" s="22" t="n"/>
+      <c r="C21" s="22" t="n"/>
+      <c r="D21" s="22" t="n"/>
+      <c r="E21" s="22" t="n"/>
+      <c r="F21" s="22" t="n"/>
+      <c r="G21" s="22" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="H21" s="31">
+        <f>SUM(H16:H20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="41">
+      <c r="A22" s="21" t="n"/>
+      <c r="B22" s="22" t="n"/>
+      <c r="C22" s="22" t="n"/>
+      <c r="D22" s="22" t="n"/>
+      <c r="E22" s="22" t="n"/>
+      <c r="F22" s="22" t="n"/>
+      <c r="G22" s="22" t="inlineStr">
+        <is>
+          <t>Tax (16%)</t>
+        </is>
+      </c>
+      <c r="H22" s="31">
+        <f>H21*0.16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B23" s="26" t="inlineStr">
+        <is>
+          <t>Conveynce Charges</t>
+        </is>
+      </c>
+      <c r="C23" s="27" t="n"/>
+      <c r="D23" s="28" t="n"/>
+      <c r="E23" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>900</v>
+      </c>
+      <c r="H23" s="8">
+        <f>E23*G23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B24" s="26" t="inlineStr">
+        <is>
+          <t>Out of City Charges</t>
+        </is>
+      </c>
+      <c r="C24" s="27" t="n"/>
+      <c r="D24" s="28" t="n"/>
+      <c r="E24" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="41">
+      <c r="A25" s="21" t="n"/>
+      <c r="B25" s="22" t="n"/>
+      <c r="C25" s="22" t="n"/>
+      <c r="D25" s="22" t="n"/>
+      <c r="E25" s="22" t="n"/>
+      <c r="F25" s="22" t="n"/>
+      <c r="G25" s="22" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="H25" s="9">
+        <f>SUM(H21:H24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="n"/>
+      <c r="B26" s="34" t="n"/>
+      <c r="C26" s="34" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="34" t="n"/>
+      <c r="F26" s="34" t="n"/>
+      <c r="G26" s="34" t="n"/>
+      <c r="H26" s="34" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="34" t="n"/>
+      <c r="B27" s="34" t="n"/>
+      <c r="C27" s="34" t="n"/>
+      <c r="D27" s="34" t="n"/>
+      <c r="E27" s="34" t="n"/>
+      <c r="F27" s="34" t="n"/>
+      <c r="G27" s="34" t="n"/>
+      <c r="H27" s="34" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="41">
+      <c r="A28" s="33" t="inlineStr">
+        <is>
+          <t>Truly Yours,</t>
+        </is>
+      </c>
+      <c r="B28" s="33" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="34" t="n"/>
+      <c r="B29" s="34" t="n"/>
+      <c r="C29" s="34" t="n"/>
+      <c r="D29" s="34" t="n"/>
+      <c r="E29" s="34" t="n"/>
+      <c r="F29" s="34" t="n"/>
+      <c r="G29" s="34" t="n"/>
+      <c r="H29" s="34" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="29" t="inlineStr">
+        <is>
+          <t>ASAD ALI</t>
+        </is>
+      </c>
+      <c r="B30" s="29" t="n"/>
+      <c r="C30" s="10" t="n"/>
+      <c r="D30" s="10" t="n"/>
+      <c r="E30" s="10" t="n"/>
+      <c r="F30" s="10" t="n"/>
+      <c r="G30" s="10" t="n"/>
+      <c r="H30" s="10" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   (Chief Executive)</t>
+        </is>
+      </c>
+      <c r="B31" s="33" t="n"/>
+      <c r="C31" s="10" t="n"/>
+      <c r="D31" s="10" t="n"/>
+      <c r="E31" s="10" t="n"/>
+      <c r="F31" s="10" t="n"/>
+      <c r="G31" s="10" t="n"/>
+      <c r="H31" s="10" t="n"/>
+    </row>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
 </file>
--- a/User Data/MARCH_2021/Monthly Report LHR 01-03-2021.xlsx
+++ b/User Data/MARCH_2021/Monthly Report LHR 01-03-2021.xlsx
@@ -15,6 +15,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB004-03-20211" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB005-03-2021" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB006-03-2021" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB003-03-20211" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB004-03-20212" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1418,6 +1420,1048 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="41" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="41" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="41" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="41" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="41" min="9" max="94"/>
+    <col width="9.140625" customWidth="1" style="41" min="95" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="120.75" customHeight="1" s="41" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="41">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="33" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D2" s="64" t="inlineStr">
+        <is>
+          <t>LB003-03-2021</t>
+        </is>
+      </c>
+      <c r="E2" s="62" t="n"/>
+      <c r="F2" s="63" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="41" thickBot="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>STRN</t>
+        </is>
+      </c>
+      <c r="D3" s="64" t="inlineStr">
+        <is>
+          <t>8187702-6</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="41" thickBot="1">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="33" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NTN</t>
+        </is>
+      </c>
+      <c r="D4" s="64" t="inlineStr">
+        <is>
+          <t>35101-2935417-3</t>
+        </is>
+      </c>
+      <c r="E4" s="62" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="41" thickBot="1">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="33" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>AC/NO</t>
+        </is>
+      </c>
+      <c r="D5" s="65" t="inlineStr">
+        <is>
+          <t>0018 0981 0217 5901</t>
+        </is>
+      </c>
+      <c r="E5" s="62" t="n"/>
+      <c r="F5" s="63" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" s="41">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="33" t="n"/>
+      <c r="C6" s="33" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="41">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>13/Mar/2021</t>
+        </is>
+      </c>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="30" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="40" t="inlineStr">
+        <is>
+          <t>Complaint No.</t>
+        </is>
+      </c>
+      <c r="G7" s="40" t="n"/>
+      <c r="H7" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="41">
+      <c r="A8" s="33" t="inlineStr">
+        <is>
+          <t>BANK AL-HABIB</t>
+        </is>
+      </c>
+      <c r="B8" s="33" t="n"/>
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="41">
+      <c r="A9" s="33" t="inlineStr">
+        <is>
+          <t>RETT,LHR ZONE</t>
+        </is>
+      </c>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="32" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="41">
+      <c r="A10" s="66" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="41">
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="32" t="n"/>
+      <c r="C11" s="32" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="40" t="inlineStr">
+        <is>
+          <t>Subject:      Bill for subject_line:</t>
+        </is>
+      </c>
+      <c r="B12" s="40" t="n"/>
+      <c r="C12" s="40" t="n"/>
+      <c r="D12" s="40" t="n"/>
+      <c r="E12" s="40" t="n"/>
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="40" t="n"/>
+      <c r="H12" s="40" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="41">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="33" t="n"/>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="33" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="61" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B14" s="62" t="n"/>
+      <c r="C14" s="62" t="n"/>
+      <c r="D14" s="62" t="n"/>
+      <c r="E14" s="62" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="62" t="n"/>
+      <c r="H14" s="63" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="61" t="inlineStr">
+        <is>
+          <t>Sr No</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C15" s="62" t="n"/>
+      <c r="D15" s="63" t="n"/>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="F15" s="61" t="inlineStr">
+        <is>
+          <t>Job</t>
+        </is>
+      </c>
+      <c r="G15" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rate </t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="41">
+      <c r="A16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gsd </t>
+        </is>
+      </c>
+      <c r="C16" s="62" t="n"/>
+      <c r="D16" s="63" t="n"/>
+      <c r="E16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="65" t="n"/>
+      <c r="G16" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="41">
+      <c r="A17" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gsd </t>
+        </is>
+      </c>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="72" t="n"/>
+      <c r="G17" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="41">
+      <c r="A18" s="67" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gsd </t>
+        </is>
+      </c>
+      <c r="C18" s="62" t="n"/>
+      <c r="D18" s="63" t="n"/>
+      <c r="E18" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="65" t="n"/>
+      <c r="G18" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="41">
+      <c r="A19" s="21" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="22" t="n"/>
+      <c r="D19" s="22" t="n"/>
+      <c r="E19" s="22" t="n"/>
+      <c r="F19" s="22" t="n"/>
+      <c r="G19" s="22" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="H19" s="31">
+        <f>SUM(H16:H18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="41">
+      <c r="A20" s="21" t="n"/>
+      <c r="B20" s="22" t="n"/>
+      <c r="C20" s="22" t="n"/>
+      <c r="D20" s="22" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="22" t="n"/>
+      <c r="G20" s="22" t="inlineStr">
+        <is>
+          <t>Tax (16%)</t>
+        </is>
+      </c>
+      <c r="H20" s="31">
+        <f>H19*0.16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="41">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="26" t="inlineStr">
+        <is>
+          <t>Visit Charges</t>
+        </is>
+      </c>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="28" t="n"/>
+      <c r="E21" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>780</v>
+      </c>
+      <c r="H21" s="8">
+        <f>E21*G21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="41">
+      <c r="A22" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B22" s="26" t="inlineStr">
+        <is>
+          <t>Out of City Charges</t>
+        </is>
+      </c>
+      <c r="C22" s="27" t="n"/>
+      <c r="D22" s="28" t="n"/>
+      <c r="E22" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="21" t="n"/>
+      <c r="B23" s="22" t="n"/>
+      <c r="C23" s="22" t="n"/>
+      <c r="D23" s="22" t="n"/>
+      <c r="E23" s="22" t="n"/>
+      <c r="F23" s="22" t="n"/>
+      <c r="G23" s="22" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="H23" s="9">
+        <f>SUM(H19:H22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="n"/>
+      <c r="B24" s="34" t="n"/>
+      <c r="C24" s="34" t="n"/>
+      <c r="D24" s="34" t="n"/>
+      <c r="E24" s="34" t="n"/>
+      <c r="F24" s="34" t="n"/>
+      <c r="G24" s="34" t="n"/>
+      <c r="H24" s="34" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="41">
+      <c r="A25" s="34" t="n"/>
+      <c r="B25" s="34" t="n"/>
+      <c r="C25" s="34" t="n"/>
+      <c r="D25" s="34" t="n"/>
+      <c r="E25" s="34" t="n"/>
+      <c r="F25" s="34" t="n"/>
+      <c r="G25" s="34" t="n"/>
+      <c r="H25" s="34" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="33" t="inlineStr">
+        <is>
+          <t>Truly Yours,</t>
+        </is>
+      </c>
+      <c r="B26" s="33" t="n"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="10" t="n"/>
+      <c r="E26" s="10" t="n"/>
+      <c r="F26" s="10" t="n"/>
+      <c r="G26" s="10" t="n"/>
+      <c r="H26" s="10" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="34" t="n"/>
+      <c r="B27" s="34" t="n"/>
+      <c r="C27" s="34" t="n"/>
+      <c r="D27" s="34" t="n"/>
+      <c r="E27" s="34" t="n"/>
+      <c r="F27" s="34" t="n"/>
+      <c r="G27" s="34" t="n"/>
+      <c r="H27" s="34" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="41">
+      <c r="A28" s="29" t="inlineStr">
+        <is>
+          <t>ASAD ALI</t>
+        </is>
+      </c>
+      <c r="B28" s="29" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   (Chief Executive)</t>
+        </is>
+      </c>
+      <c r="B29" s="33" t="n"/>
+      <c r="C29" s="10" t="n"/>
+      <c r="D29" s="10" t="n"/>
+      <c r="E29" s="10" t="n"/>
+      <c r="F29" s="10" t="n"/>
+      <c r="G29" s="10" t="n"/>
+      <c r="H29" s="10" t="n"/>
+    </row>
+    <row r="44">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="41" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="41" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="41" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="41" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="41" min="9" max="94"/>
+    <col width="9.140625" customWidth="1" style="41" min="95" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="120.75" customHeight="1" s="41" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="41">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="33" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D2" s="64" t="inlineStr">
+        <is>
+          <t>LB004-03-2021</t>
+        </is>
+      </c>
+      <c r="E2" s="62" t="n"/>
+      <c r="F2" s="63" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="41" thickBot="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>STRN</t>
+        </is>
+      </c>
+      <c r="D3" s="64" t="inlineStr">
+        <is>
+          <t>8187702-6</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="41" thickBot="1">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="33" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NTN</t>
+        </is>
+      </c>
+      <c r="D4" s="64" t="inlineStr">
+        <is>
+          <t>35101-2935417-3</t>
+        </is>
+      </c>
+      <c r="E4" s="62" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="41" thickBot="1">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="33" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>AC/NO</t>
+        </is>
+      </c>
+      <c r="D5" s="65" t="inlineStr">
+        <is>
+          <t>0018 0981 0217 5901</t>
+        </is>
+      </c>
+      <c r="E5" s="62" t="n"/>
+      <c r="F5" s="63" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" s="41">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="33" t="n"/>
+      <c r="C6" s="33" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="41">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>13/Mar/2021</t>
+        </is>
+      </c>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="30" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="40" t="inlineStr">
+        <is>
+          <t>Complaint No.</t>
+        </is>
+      </c>
+      <c r="G7" s="40" t="n"/>
+      <c r="H7" s="5" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="41">
+      <c r="A8" s="33" t="inlineStr">
+        <is>
+          <t>BANK AL-HABIB</t>
+        </is>
+      </c>
+      <c r="B8" s="33" t="n"/>
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="41">
+      <c r="A9" s="33" t="inlineStr">
+        <is>
+          <t>TTT,LHR ZONE</t>
+        </is>
+      </c>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="32" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="41">
+      <c r="A10" s="66" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="41">
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="32" t="n"/>
+      <c r="C11" s="32" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="40" t="inlineStr">
+        <is>
+          <t>Subject:      Bill for subject_line:</t>
+        </is>
+      </c>
+      <c r="B12" s="40" t="n"/>
+      <c r="C12" s="40" t="n"/>
+      <c r="D12" s="40" t="n"/>
+      <c r="E12" s="40" t="n"/>
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="40" t="n"/>
+      <c r="H12" s="40" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="41">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="33" t="n"/>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="33" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="61" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B14" s="62" t="n"/>
+      <c r="C14" s="62" t="n"/>
+      <c r="D14" s="62" t="n"/>
+      <c r="E14" s="62" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="62" t="n"/>
+      <c r="H14" s="63" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="61" t="inlineStr">
+        <is>
+          <t>Sr No</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C15" s="62" t="n"/>
+      <c r="D15" s="63" t="n"/>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="F15" s="61" t="inlineStr">
+        <is>
+          <t>Job</t>
+        </is>
+      </c>
+      <c r="G15" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rate </t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="41">
+      <c r="A16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ttt </t>
+        </is>
+      </c>
+      <c r="C16" s="62" t="n"/>
+      <c r="D16" s="63" t="n"/>
+      <c r="E16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="65" t="n"/>
+      <c r="G16" s="67" t="n">
+        <v>78</v>
+      </c>
+      <c r="H16" s="69" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="41">
+      <c r="A17" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ttt </t>
+        </is>
+      </c>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="72" t="n"/>
+      <c r="G17" s="70" t="n">
+        <v>78</v>
+      </c>
+      <c r="H17" s="73" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="41">
+      <c r="A18" s="67" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ttt </t>
+        </is>
+      </c>
+      <c r="C18" s="62" t="n"/>
+      <c r="D18" s="63" t="n"/>
+      <c r="E18" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="65" t="n"/>
+      <c r="G18" s="67" t="n">
+        <v>78</v>
+      </c>
+      <c r="H18" s="69" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="41">
+      <c r="A19" s="21" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="22" t="n"/>
+      <c r="D19" s="22" t="n"/>
+      <c r="E19" s="22" t="n"/>
+      <c r="F19" s="22" t="n"/>
+      <c r="G19" s="22" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="H19" s="31">
+        <f>SUM(H16:H18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="41">
+      <c r="A20" s="21" t="n"/>
+      <c r="B20" s="22" t="n"/>
+      <c r="C20" s="22" t="n"/>
+      <c r="D20" s="22" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="22" t="n"/>
+      <c r="G20" s="22" t="inlineStr">
+        <is>
+          <t>Tax (16%)</t>
+        </is>
+      </c>
+      <c r="H20" s="31">
+        <f>H19*0.16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="41">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="26" t="inlineStr">
+        <is>
+          <t>Conveynce Charges</t>
+        </is>
+      </c>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="28" t="n"/>
+      <c r="E21" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>56</v>
+      </c>
+      <c r="H21" s="8">
+        <f>E21*G21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="41">
+      <c r="A22" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B22" s="26" t="inlineStr">
+        <is>
+          <t>Out of City Charges</t>
+        </is>
+      </c>
+      <c r="C22" s="27" t="n"/>
+      <c r="D22" s="28" t="n"/>
+      <c r="E22" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="21" t="n"/>
+      <c r="B23" s="22" t="n"/>
+      <c r="C23" s="22" t="n"/>
+      <c r="D23" s="22" t="n"/>
+      <c r="E23" s="22" t="n"/>
+      <c r="F23" s="22" t="n"/>
+      <c r="G23" s="22" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="H23" s="9">
+        <f>SUM(H19:H22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="n"/>
+      <c r="B24" s="34" t="n"/>
+      <c r="C24" s="34" t="n"/>
+      <c r="D24" s="34" t="n"/>
+      <c r="E24" s="34" t="n"/>
+      <c r="F24" s="34" t="n"/>
+      <c r="G24" s="34" t="n"/>
+      <c r="H24" s="34" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="41">
+      <c r="A25" s="34" t="n"/>
+      <c r="B25" s="34" t="n"/>
+      <c r="C25" s="34" t="n"/>
+      <c r="D25" s="34" t="n"/>
+      <c r="E25" s="34" t="n"/>
+      <c r="F25" s="34" t="n"/>
+      <c r="G25" s="34" t="n"/>
+      <c r="H25" s="34" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="33" t="inlineStr">
+        <is>
+          <t>Truly Yours,</t>
+        </is>
+      </c>
+      <c r="B26" s="33" t="n"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="10" t="n"/>
+      <c r="E26" s="10" t="n"/>
+      <c r="F26" s="10" t="n"/>
+      <c r="G26" s="10" t="n"/>
+      <c r="H26" s="10" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="34" t="n"/>
+      <c r="B27" s="34" t="n"/>
+      <c r="C27" s="34" t="n"/>
+      <c r="D27" s="34" t="n"/>
+      <c r="E27" s="34" t="n"/>
+      <c r="F27" s="34" t="n"/>
+      <c r="G27" s="34" t="n"/>
+      <c r="H27" s="34" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="41">
+      <c r="A28" s="29" t="inlineStr">
+        <is>
+          <t>ASAD ALI</t>
+        </is>
+      </c>
+      <c r="B28" s="29" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   (Chief Executive)</t>
+        </is>
+      </c>
+      <c r="B29" s="33" t="n"/>
+      <c r="C29" s="10" t="n"/>
+      <c r="D29" s="10" t="n"/>
+      <c r="E29" s="10" t="n"/>
+      <c r="F29" s="10" t="n"/>
+      <c r="G29" s="10" t="n"/>
+      <c r="H29" s="10" t="n"/>
+    </row>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -4799,7 +5843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A2:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5332,20 +6376,6 @@
       <c r="G31" s="10" t="n"/>
       <c r="H31" s="10" t="n"/>
     </row>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
     <row r="46">
       <c r="H46" t="inlineStr">
         <is>

--- a/User Data/MARCH_2021/Monthly Report LHR 01-03-2021.xlsx
+++ b/User Data/MARCH_2021/Monthly Report LHR 01-03-2021.xlsx
@@ -8,7 +8,15 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bill Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB003-03-2021" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB001-03-2021" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB002-03-2021" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB003-03-2021" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB004-03-2021" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB005-03-2021" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB005-03-20211" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB005-03-20212" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB006-03-2021" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LB007-03-2021" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -497,27 +505,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,6 +513,8 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="43" fontId="6" fillId="4" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -536,11 +525,30 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
@@ -976,134 +984,134 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18.42578125" customWidth="1" style="41" min="2" max="2"/>
-    <col width="9.28515625" customWidth="1" style="41" min="3" max="3"/>
-    <col width="20.42578125" customWidth="1" style="41" min="4" max="4"/>
-    <col width="15.7109375" customWidth="1" style="41" min="5" max="5"/>
-    <col width="16.140625" customWidth="1" style="41" min="6" max="6"/>
-    <col width="18.7109375" customWidth="1" style="41" min="7" max="7"/>
-    <col width="15.28515625" customWidth="1" style="41" min="8" max="8"/>
-    <col width="9.5703125" customWidth="1" style="41" min="9" max="9"/>
-    <col width="19.28515625" customWidth="1" style="41" min="10" max="10"/>
+    <col width="18.42578125" customWidth="1" style="56" min="2" max="2"/>
+    <col width="9.28515625" customWidth="1" style="56" min="3" max="3"/>
+    <col width="20.42578125" customWidth="1" style="56" min="4" max="4"/>
+    <col width="15.7109375" customWidth="1" style="56" min="5" max="5"/>
+    <col width="16.140625" customWidth="1" style="56" min="6" max="6"/>
+    <col width="18.7109375" customWidth="1" style="56" min="7" max="7"/>
+    <col width="15.28515625" customWidth="1" style="56" min="8" max="8"/>
+    <col width="9.5703125" customWidth="1" style="56" min="9" max="9"/>
+    <col width="19.28515625" customWidth="1" style="56" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="4" ht="15.75" customHeight="1" s="41" thickBot="1"/>
-    <row r="5" ht="15.75" customHeight="1" s="41" thickBot="1">
-      <c r="A5" s="51" t="inlineStr">
+    <row r="4" ht="15.75" customHeight="1" s="56" thickBot="1"/>
+    <row r="5" ht="15.75" customHeight="1" s="56" thickBot="1">
+      <c r="A5" s="40" t="inlineStr">
         <is>
           <t xml:space="preserve">                                                            Bank Al Habib Limited                                Date: dd-mm-yyyy </t>
         </is>
       </c>
-      <c r="B5" s="52" t="n"/>
-      <c r="C5" s="52" t="n"/>
-      <c r="D5" s="52" t="n"/>
-      <c r="E5" s="52" t="n"/>
-      <c r="F5" s="52" t="n"/>
-      <c r="G5" s="52" t="n"/>
-      <c r="H5" s="52" t="n"/>
-      <c r="I5" s="52" t="n"/>
-      <c r="J5" s="53" t="n"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" s="41" thickBot="1">
-      <c r="A6" s="54" t="inlineStr">
+      <c r="B5" s="41" t="n"/>
+      <c r="C5" s="41" t="n"/>
+      <c r="D5" s="41" t="n"/>
+      <c r="E5" s="41" t="n"/>
+      <c r="F5" s="41" t="n"/>
+      <c r="G5" s="41" t="n"/>
+      <c r="H5" s="41" t="n"/>
+      <c r="I5" s="41" t="n"/>
+      <c r="J5" s="42" t="n"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="56" thickBot="1">
+      <c r="A6" s="43" t="inlineStr">
         <is>
           <t>Bills Summary zone_name ZONE</t>
         </is>
       </c>
-      <c r="B6" s="47" t="n"/>
-      <c r="C6" s="47" t="n"/>
-      <c r="D6" s="47" t="n"/>
-      <c r="E6" s="47" t="n"/>
-      <c r="F6" s="47" t="n"/>
-      <c r="G6" s="47" t="n"/>
-      <c r="H6" s="47" t="n"/>
-      <c r="I6" s="47" t="n"/>
-      <c r="J6" s="48" t="n"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" s="41" thickBot="1">
+      <c r="B6" s="44" t="n"/>
+      <c r="C6" s="44" t="n"/>
+      <c r="D6" s="44" t="n"/>
+      <c r="E6" s="44" t="n"/>
+      <c r="F6" s="44" t="n"/>
+      <c r="G6" s="44" t="n"/>
+      <c r="H6" s="44" t="n"/>
+      <c r="I6" s="44" t="n"/>
+      <c r="J6" s="45" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="56" thickBot="1">
       <c r="A7" s="19" t="n"/>
       <c r="B7" s="20" t="n"/>
       <c r="C7" s="20" t="n"/>
       <c r="D7" s="20" t="n"/>
       <c r="E7" s="20" t="n"/>
-      <c r="F7" s="55" t="inlineStr">
+      <c r="F7" s="46" t="inlineStr">
         <is>
           <t xml:space="preserve">Rate of sales tax 16% on services </t>
         </is>
       </c>
-      <c r="G7" s="47" t="n"/>
-      <c r="H7" s="47" t="n"/>
-      <c r="I7" s="47" t="n"/>
-      <c r="J7" s="48" t="n"/>
+      <c r="G7" s="44" t="n"/>
+      <c r="H7" s="44" t="n"/>
+      <c r="I7" s="44" t="n"/>
+      <c r="J7" s="45" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="56" t="inlineStr">
+      <c r="A8" s="47" t="inlineStr">
         <is>
           <t>Sr No.</t>
         </is>
       </c>
-      <c r="B8" s="56" t="inlineStr">
+      <c r="B8" s="47" t="inlineStr">
         <is>
           <t>Branch / Department</t>
         </is>
       </c>
-      <c r="C8" s="58" t="inlineStr">
+      <c r="C8" s="49" t="inlineStr">
         <is>
           <t>Branch Code</t>
         </is>
       </c>
-      <c r="D8" s="56" t="inlineStr">
+      <c r="D8" s="47" t="inlineStr">
         <is>
           <t>Invoice No</t>
         </is>
       </c>
-      <c r="E8" s="59" t="inlineStr">
+      <c r="E8" s="51" t="inlineStr">
         <is>
           <t>Amount Excluding sales tax
 Parts</t>
         </is>
       </c>
-      <c r="F8" s="42" t="inlineStr">
+      <c r="F8" s="53" t="inlineStr">
         <is>
           <t>Sales tax
 Services</t>
         </is>
       </c>
-      <c r="G8" s="60" t="inlineStr">
+      <c r="G8" s="54" t="inlineStr">
         <is>
           <t>Amount including sales tax
 16%</t>
         </is>
       </c>
-      <c r="H8" s="42" t="inlineStr">
+      <c r="H8" s="53" t="inlineStr">
         <is>
           <t>Reimbursement of Transportation</t>
         </is>
       </c>
-      <c r="I8" s="44" t="inlineStr">
+      <c r="I8" s="57" t="inlineStr">
         <is>
           <t>Out of City Charges</t>
         </is>
       </c>
-      <c r="J8" s="44" t="inlineStr">
+      <c r="J8" s="57" t="inlineStr">
         <is>
           <t>Grand Total</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="41" thickBot="1">
-      <c r="A9" s="57" t="n"/>
-      <c r="B9" s="57" t="n"/>
-      <c r="C9" s="45" t="n"/>
-      <c r="D9" s="57" t="n"/>
-      <c r="E9" s="43" t="n"/>
-      <c r="F9" s="43" t="n"/>
-      <c r="G9" s="43" t="n"/>
-      <c r="H9" s="43" t="n"/>
-      <c r="I9" s="45" t="n"/>
-      <c r="J9" s="45" t="n"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="41">
+    <row r="9" ht="15.75" customHeight="1" s="56" thickBot="1">
+      <c r="A9" s="48" t="n"/>
+      <c r="B9" s="48" t="n"/>
+      <c r="C9" s="50" t="n"/>
+      <c r="D9" s="48" t="n"/>
+      <c r="E9" s="52" t="n"/>
+      <c r="F9" s="52" t="n"/>
+      <c r="G9" s="52" t="n"/>
+      <c r="H9" s="52" t="n"/>
+      <c r="I9" s="50" t="n"/>
+      <c r="J9" s="50" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="56">
       <c r="A10" s="11" t="n">
         <v>1</v>
       </c>
@@ -1147,7 +1155,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="41">
+    <row r="11" ht="15.75" customHeight="1" s="56">
       <c r="A11" s="11" t="n">
         <v>2</v>
       </c>
@@ -1191,7 +1199,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="41">
+    <row r="12" ht="15.75" customHeight="1" s="56">
       <c r="A12" s="11" t="n">
         <v>3</v>
       </c>
@@ -1235,7 +1243,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="41">
+    <row r="13" ht="15.75" customHeight="1" s="56">
       <c r="A13" s="11" t="n">
         <v>4</v>
       </c>
@@ -1279,7 +1287,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="41" thickBot="1">
+    <row r="14" ht="15.75" customHeight="1" s="56" thickBot="1">
       <c r="A14" s="11" t="n">
         <v>5</v>
       </c>
@@ -1323,15 +1331,15 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="41" thickBot="1">
-      <c r="A15" s="46" t="inlineStr">
+    <row r="15" ht="15.75" customHeight="1" s="56" thickBot="1">
+      <c r="A15" s="58" t="inlineStr">
         <is>
           <t>Total Amount</t>
         </is>
       </c>
-      <c r="B15" s="47" t="n"/>
-      <c r="C15" s="47" t="n"/>
-      <c r="D15" s="48" t="n"/>
+      <c r="B15" s="44" t="n"/>
+      <c r="C15" s="44" t="n"/>
+      <c r="D15" s="45" t="n"/>
       <c r="E15" s="17">
         <f>SUM(E10:E14)</f>
         <v/>
@@ -1358,21 +1366,21 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="49" t="inlineStr">
+      <c r="A18" s="59" t="inlineStr">
         <is>
           <t>Truly Yours,</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="50" t="inlineStr">
+      <c r="A20" s="60" t="inlineStr">
         <is>
           <t>ASAD ALI</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="40" t="inlineStr">
+      <c r="A21" s="55" t="inlineStr">
         <is>
           <t xml:space="preserve">   (Chief Executive)</t>
         </is>
@@ -1380,6 +1388,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="F7:J7"/>
@@ -1390,15 +1405,968 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="56" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="56" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="56" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="56" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="56" min="9" max="95"/>
+    <col width="9.140625" customWidth="1" style="56" min="96" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="120.75" customHeight="1" s="56" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="56">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="33" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D2" s="64" t="inlineStr">
+        <is>
+          <t>LB006-03-2021</t>
+        </is>
+      </c>
+      <c r="E2" s="62" t="n"/>
+      <c r="F2" s="63" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>STRN</t>
+        </is>
+      </c>
+      <c r="D3" s="64" t="inlineStr">
+        <is>
+          <t>8187702-6</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="33" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NTN</t>
+        </is>
+      </c>
+      <c r="D4" s="64" t="inlineStr">
+        <is>
+          <t>35101-2935417-3</t>
+        </is>
+      </c>
+      <c r="E4" s="62" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="33" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>AC/NO</t>
+        </is>
+      </c>
+      <c r="D5" s="65" t="inlineStr">
+        <is>
+          <t>0018 0981 0217 5901</t>
+        </is>
+      </c>
+      <c r="E5" s="62" t="n"/>
+      <c r="F5" s="63" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" s="56">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="33" t="n"/>
+      <c r="C6" s="33" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="56">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>18/Mar/2021</t>
+        </is>
+      </c>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="30" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="55" t="inlineStr">
+        <is>
+          <t>Complaint No.</t>
+        </is>
+      </c>
+      <c r="G7" s="55" t="n"/>
+      <c r="H7" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="56">
+      <c r="A8" s="33" t="inlineStr">
+        <is>
+          <t>BANK AL-HABIB</t>
+        </is>
+      </c>
+      <c r="B8" s="33" t="n"/>
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="56">
+      <c r="A9" s="33" t="inlineStr">
+        <is>
+          <t>ABC Branch,LHR ZONE</t>
+        </is>
+      </c>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="32" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="56">
+      <c r="A10" s="66" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="56">
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="32" t="n"/>
+      <c r="C11" s="32" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="55" t="inlineStr">
+        <is>
+          <t>Subject:      Bill for subject_line:</t>
+        </is>
+      </c>
+      <c r="B12" s="55" t="n"/>
+      <c r="C12" s="55" t="n"/>
+      <c r="D12" s="55" t="n"/>
+      <c r="E12" s="55" t="n"/>
+      <c r="F12" s="55" t="n"/>
+      <c r="G12" s="55" t="n"/>
+      <c r="H12" s="55" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="56">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="33" t="n"/>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="33" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="61" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B14" s="62" t="n"/>
+      <c r="C14" s="62" t="n"/>
+      <c r="D14" s="62" t="n"/>
+      <c r="E14" s="62" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="62" t="n"/>
+      <c r="H14" s="63" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="61" t="inlineStr">
+        <is>
+          <t>Sr No</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C15" s="62" t="n"/>
+      <c r="D15" s="63" t="n"/>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="F15" s="61" t="inlineStr">
+        <is>
+          <t>Job</t>
+        </is>
+      </c>
+      <c r="G15" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rate </t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="31.5" customHeight="1" s="56">
+      <c r="A16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monthly general Servicing (upto to 2 Ton) </t>
+        </is>
+      </c>
+      <c r="C16" s="62" t="n"/>
+      <c r="D16" s="63" t="n"/>
+      <c r="E16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="65" t="n"/>
+      <c r="G16" s="67" t="n">
+        <v>300</v>
+      </c>
+      <c r="H16" s="69" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="56">
+      <c r="A17" s="67" t="n"/>
+      <c r="B17" s="68" t="n"/>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="67" t="n"/>
+      <c r="F17" s="65" t="n"/>
+      <c r="G17" s="67" t="n"/>
+      <c r="H17" s="69" t="n"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="56">
+      <c r="A18" s="21" t="n"/>
+      <c r="B18" s="22" t="n"/>
+      <c r="C18" s="22" t="n"/>
+      <c r="D18" s="22" t="n"/>
+      <c r="E18" s="22" t="n"/>
+      <c r="F18" s="22" t="n"/>
+      <c r="G18" s="22" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="H18" s="31">
+        <f>SUM(H16:H17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="56">
+      <c r="A19" s="21" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="22" t="n"/>
+      <c r="D19" s="22" t="n"/>
+      <c r="E19" s="22" t="n"/>
+      <c r="F19" s="22" t="n"/>
+      <c r="G19" s="22" t="inlineStr">
+        <is>
+          <t>Tax (16%)</t>
+        </is>
+      </c>
+      <c r="H19" s="31">
+        <f>H18*0.16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="56">
+      <c r="A20" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B20" s="26" t="inlineStr">
+        <is>
+          <t>Visit Charges</t>
+        </is>
+      </c>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="28" t="n"/>
+      <c r="E20" s="65" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>780</v>
+      </c>
+      <c r="H20" s="8">
+        <f>G20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="56">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="26" t="inlineStr">
+        <is>
+          <t>Out of City Charges</t>
+        </is>
+      </c>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="28" t="n"/>
+      <c r="E21" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="56">
+      <c r="A22" s="21" t="n"/>
+      <c r="B22" s="22" t="n"/>
+      <c r="C22" s="22" t="n"/>
+      <c r="D22" s="22" t="n"/>
+      <c r="E22" s="22" t="n"/>
+      <c r="F22" s="22" t="n"/>
+      <c r="G22" s="22" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H18:H21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="34" t="n"/>
+      <c r="B23" s="34" t="n"/>
+      <c r="C23" s="34" t="n"/>
+      <c r="D23" s="34" t="n"/>
+      <c r="E23" s="34" t="n"/>
+      <c r="F23" s="34" t="n"/>
+      <c r="G23" s="34" t="n"/>
+      <c r="H23" s="34" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="n"/>
+      <c r="B24" s="34" t="n"/>
+      <c r="C24" s="34" t="n"/>
+      <c r="D24" s="34" t="n"/>
+      <c r="E24" s="34" t="n"/>
+      <c r="F24" s="34" t="n"/>
+      <c r="G24" s="34" t="n"/>
+      <c r="H24" s="34" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="56">
+      <c r="A25" s="33" t="inlineStr">
+        <is>
+          <t>Truly Yours,</t>
+        </is>
+      </c>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="n"/>
+      <c r="B26" s="34" t="n"/>
+      <c r="C26" s="34" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="34" t="n"/>
+      <c r="F26" s="34" t="n"/>
+      <c r="G26" s="34" t="n"/>
+      <c r="H26" s="34" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="29" t="inlineStr">
+        <is>
+          <t>ASAD ALI</t>
+        </is>
+      </c>
+      <c r="B27" s="29" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="10" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="10" t="n"/>
+      <c r="G27" s="10" t="n"/>
+      <c r="H27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="56">
+      <c r="A28" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   (Chief Executive)</t>
+        </is>
+      </c>
+      <c r="B28" s="33" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+    </row>
+    <row r="43">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="56" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="56" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="56" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="56" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="56" min="9" max="95"/>
+    <col width="9.140625" customWidth="1" style="56" min="96" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="120.75" customHeight="1" s="56" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="56">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="33" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D2" s="64" t="inlineStr">
+        <is>
+          <t>LB007-03-2021</t>
+        </is>
+      </c>
+      <c r="E2" s="62" t="n"/>
+      <c r="F2" s="63" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>STRN</t>
+        </is>
+      </c>
+      <c r="D3" s="64" t="inlineStr">
+        <is>
+          <t>8187702-6</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="33" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NTN</t>
+        </is>
+      </c>
+      <c r="D4" s="64" t="inlineStr">
+        <is>
+          <t>35101-2935417-3</t>
+        </is>
+      </c>
+      <c r="E4" s="62" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="33" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>AC/NO</t>
+        </is>
+      </c>
+      <c r="D5" s="65" t="inlineStr">
+        <is>
+          <t>0018 0981 0217 5901</t>
+        </is>
+      </c>
+      <c r="E5" s="62" t="n"/>
+      <c r="F5" s="63" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" s="56">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="33" t="n"/>
+      <c r="C6" s="33" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="56">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>18/Mar/2021</t>
+        </is>
+      </c>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="30" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="55" t="inlineStr">
+        <is>
+          <t>Complaint No.</t>
+        </is>
+      </c>
+      <c r="G7" s="55" t="n"/>
+      <c r="H7" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="56">
+      <c r="A8" s="33" t="inlineStr">
+        <is>
+          <t>BANK AL-HABIB</t>
+        </is>
+      </c>
+      <c r="B8" s="33" t="n"/>
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="56">
+      <c r="A9" s="33" t="inlineStr">
+        <is>
+          <t>TIMBER MARKET Branch,LHR ZONE</t>
+        </is>
+      </c>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="32" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="56">
+      <c r="A10" s="66" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="56">
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="32" t="n"/>
+      <c r="C11" s="32" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="55" t="inlineStr">
+        <is>
+          <t>Subject:      Bill for subject_line:</t>
+        </is>
+      </c>
+      <c r="B12" s="55" t="n"/>
+      <c r="C12" s="55" t="n"/>
+      <c r="D12" s="55" t="n"/>
+      <c r="E12" s="55" t="n"/>
+      <c r="F12" s="55" t="n"/>
+      <c r="G12" s="55" t="n"/>
+      <c r="H12" s="55" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="56">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="33" t="n"/>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="33" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="61" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B14" s="62" t="n"/>
+      <c r="C14" s="62" t="n"/>
+      <c r="D14" s="62" t="n"/>
+      <c r="E14" s="62" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="62" t="n"/>
+      <c r="H14" s="63" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="61" t="inlineStr">
+        <is>
+          <t>Sr No</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C15" s="62" t="n"/>
+      <c r="D15" s="63" t="n"/>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="F15" s="61" t="inlineStr">
+        <is>
+          <t>Job</t>
+        </is>
+      </c>
+      <c r="G15" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rate </t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="56">
+      <c r="A16" s="67" t="n"/>
+      <c r="B16" s="68" t="n"/>
+      <c r="C16" s="62" t="n"/>
+      <c r="D16" s="63" t="n"/>
+      <c r="E16" s="67" t="n"/>
+      <c r="F16" s="65" t="n"/>
+      <c r="G16" s="67" t="n"/>
+      <c r="H16" s="69" t="n"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="56">
+      <c r="A17" s="67" t="n"/>
+      <c r="B17" s="68" t="n"/>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="67" t="n"/>
+      <c r="F17" s="65" t="n"/>
+      <c r="G17" s="67" t="n"/>
+      <c r="H17" s="69" t="n"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="56">
+      <c r="A18" s="21" t="n"/>
+      <c r="B18" s="22" t="n"/>
+      <c r="C18" s="22" t="n"/>
+      <c r="D18" s="22" t="n"/>
+      <c r="E18" s="22" t="n"/>
+      <c r="F18" s="22" t="n"/>
+      <c r="G18" s="22" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="H18" s="31">
+        <f>SUM(H16:H17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="56">
+      <c r="A19" s="21" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="22" t="n"/>
+      <c r="D19" s="22" t="n"/>
+      <c r="E19" s="22" t="n"/>
+      <c r="F19" s="22" t="n"/>
+      <c r="G19" s="22" t="inlineStr">
+        <is>
+          <t>Tax (16%)</t>
+        </is>
+      </c>
+      <c r="H19" s="31">
+        <f>H18*0.16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="56">
+      <c r="A20" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B20" s="26" t="inlineStr">
+        <is>
+          <t>Visit Charges</t>
+        </is>
+      </c>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="28" t="n"/>
+      <c r="E20" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>780</v>
+      </c>
+      <c r="H20" s="8">
+        <f>G20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="56">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="26" t="inlineStr">
+        <is>
+          <t>Out of City Charges</t>
+        </is>
+      </c>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="28" t="n"/>
+      <c r="E21" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="56">
+      <c r="A22" s="21" t="n"/>
+      <c r="B22" s="22" t="n"/>
+      <c r="C22" s="22" t="n"/>
+      <c r="D22" s="22" t="n"/>
+      <c r="E22" s="22" t="n"/>
+      <c r="F22" s="22" t="n"/>
+      <c r="G22" s="22" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H18:H21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="34" t="n"/>
+      <c r="B23" s="34" t="n"/>
+      <c r="C23" s="34" t="n"/>
+      <c r="D23" s="34" t="n"/>
+      <c r="E23" s="34" t="n"/>
+      <c r="F23" s="34" t="n"/>
+      <c r="G23" s="34" t="n"/>
+      <c r="H23" s="34" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="n"/>
+      <c r="B24" s="34" t="n"/>
+      <c r="C24" s="34" t="n"/>
+      <c r="D24" s="34" t="n"/>
+      <c r="E24" s="34" t="n"/>
+      <c r="F24" s="34" t="n"/>
+      <c r="G24" s="34" t="n"/>
+      <c r="H24" s="34" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="56">
+      <c r="A25" s="33" t="inlineStr">
+        <is>
+          <t>Truly Yours,</t>
+        </is>
+      </c>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="n"/>
+      <c r="B26" s="34" t="n"/>
+      <c r="C26" s="34" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="34" t="n"/>
+      <c r="F26" s="34" t="n"/>
+      <c r="G26" s="34" t="n"/>
+      <c r="H26" s="34" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="29" t="inlineStr">
+        <is>
+          <t>ASAD ALI</t>
+        </is>
+      </c>
+      <c r="B27" s="29" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="10" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="10" t="n"/>
+      <c r="G27" s="10" t="n"/>
+      <c r="H27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="56">
+      <c r="A28" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   (Chief Executive)</t>
+        </is>
+      </c>
+      <c r="B28" s="33" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+    </row>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1416,16 +2384,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="41" min="1" max="3"/>
-    <col width="14.85546875" customWidth="1" style="41" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="41" min="5" max="7"/>
-    <col width="13.85546875" customWidth="1" style="41" min="8" max="8"/>
-    <col width="9.140625" customWidth="1" style="41" min="9" max="94"/>
-    <col width="9.140625" customWidth="1" style="41" min="95" max="16384"/>
+    <col width="9.140625" customWidth="1" style="56" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="56" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="56" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="56" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="56" min="9" max="95"/>
+    <col width="9.140625" customWidth="1" style="56" min="96" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="120.75" customHeight="1" s="41" thickBot="1"/>
-    <row r="2" ht="15.75" customHeight="1" s="41">
+    <row r="1" ht="120.75" customHeight="1" s="56" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="56">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="33" t="n"/>
       <c r="C2" s="1" t="inlineStr">
@@ -1443,7 +2411,7 @@
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="2" t="n"/>
     </row>
-    <row r="3" ht="16.5" customHeight="1" s="41" thickBot="1">
+    <row r="3" ht="16.5" customHeight="1" s="56" thickBot="1">
       <c r="A3" s="4" t="n"/>
       <c r="B3" s="33" t="n"/>
       <c r="C3" s="3" t="inlineStr">
@@ -1461,7 +2429,7 @@
       <c r="G3" s="4" t="n"/>
       <c r="H3" s="2" t="n"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1" s="41" thickBot="1">
+    <row r="4" ht="16.5" customHeight="1" s="56" thickBot="1">
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="33" t="n"/>
       <c r="C4" s="3" t="inlineStr">
@@ -1479,7 +2447,7 @@
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="2" t="n"/>
     </row>
-    <row r="5" ht="16.5" customHeight="1" s="41" thickBot="1">
+    <row r="5" ht="16.5" customHeight="1" s="56" thickBot="1">
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="33" t="n"/>
       <c r="C5" s="3" t="inlineStr">
@@ -1497,7 +2465,7 @@
       <c r="G5" s="4" t="n"/>
       <c r="H5" s="2" t="n"/>
     </row>
-    <row r="6" ht="21" customHeight="1" s="41">
+    <row r="6" ht="21" customHeight="1" s="56">
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="33" t="n"/>
       <c r="C6" s="33" t="n"/>
@@ -1507,7 +2475,7 @@
       <c r="G6" s="4" t="n"/>
       <c r="H6" s="2" t="n"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="41">
+    <row r="7" ht="15.75" customHeight="1" s="56">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>m/d/y</t>
@@ -1517,19 +2485,19 @@
       <c r="C7" s="30" t="n"/>
       <c r="D7" s="33" t="n"/>
       <c r="E7" s="4" t="n"/>
-      <c r="F7" s="40" t="inlineStr">
+      <c r="F7" s="55" t="inlineStr">
         <is>
           <t>Complaint No.</t>
         </is>
       </c>
-      <c r="G7" s="40" t="n"/>
+      <c r="G7" s="55" t="n"/>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>comp_id</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="41">
+    <row r="8" ht="15.75" customHeight="1" s="56">
       <c r="A8" s="33" t="inlineStr">
         <is>
           <t>Bank Al Habib Limited</t>
@@ -1543,7 +2511,7 @@
       <c r="G8" s="4" t="n"/>
       <c r="H8" s="5" t="n"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="41">
+    <row r="9" ht="15.75" customHeight="1" s="56">
       <c r="A9" s="33" t="inlineStr">
         <is>
           <t>address</t>
@@ -1557,7 +2525,7 @@
       <c r="G9" s="4" t="n"/>
       <c r="H9" s="2" t="n"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="41">
+    <row r="10" ht="15.75" customHeight="1" s="56">
       <c r="A10" s="66" t="n"/>
       <c r="D10" s="33" t="n"/>
       <c r="E10" s="4" t="n"/>
@@ -1565,7 +2533,7 @@
       <c r="G10" s="4" t="n"/>
       <c r="H10" s="2" t="n"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="41">
+    <row r="11" ht="15.75" customHeight="1" s="56">
       <c r="A11" s="32" t="n"/>
       <c r="B11" s="32" t="n"/>
       <c r="C11" s="32" t="n"/>
@@ -1576,20 +2544,20 @@
       <c r="H11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="40" t="inlineStr">
+      <c r="A12" s="55" t="inlineStr">
         <is>
           <t>Subject:      Bill for subject_line:</t>
         </is>
       </c>
-      <c r="B12" s="40" t="n"/>
-      <c r="C12" s="40" t="n"/>
-      <c r="D12" s="40" t="n"/>
-      <c r="E12" s="40" t="n"/>
-      <c r="F12" s="40" t="n"/>
-      <c r="G12" s="40" t="n"/>
-      <c r="H12" s="40" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="41">
+      <c r="B12" s="55" t="n"/>
+      <c r="C12" s="55" t="n"/>
+      <c r="D12" s="55" t="n"/>
+      <c r="E12" s="55" t="n"/>
+      <c r="F12" s="55" t="n"/>
+      <c r="G12" s="55" t="n"/>
+      <c r="H12" s="55" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="56">
       <c r="A13" s="4" t="n"/>
       <c r="B13" s="33" t="n"/>
       <c r="C13" s="33" t="n"/>
@@ -1647,7 +2615,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="41">
+    <row r="16" ht="15.75" customHeight="1" s="56">
       <c r="A16" s="65" t="n"/>
       <c r="B16" s="23" t="n"/>
       <c r="C16" s="24" t="n"/>
@@ -1657,7 +2625,7 @@
       <c r="G16" s="65" t="n"/>
       <c r="H16" s="35" t="n"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="41">
+    <row r="17" ht="15.75" customHeight="1" s="56">
       <c r="A17" s="65" t="n"/>
       <c r="B17" s="23" t="n"/>
       <c r="C17" s="24" t="n"/>
@@ -1667,7 +2635,7 @@
       <c r="G17" s="65" t="n"/>
       <c r="H17" s="35" t="n"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="41">
+    <row r="18" ht="15.75" customHeight="1" s="56">
       <c r="A18" s="21" t="n"/>
       <c r="B18" s="22" t="n"/>
       <c r="C18" s="22" t="n"/>
@@ -1684,7 +2652,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="41">
+    <row r="19" ht="15.75" customHeight="1" s="56">
       <c r="A19" s="21" t="n"/>
       <c r="B19" s="22" t="n"/>
       <c r="C19" s="22" t="n"/>
@@ -1701,7 +2669,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="41">
+    <row r="20" ht="15.75" customHeight="1" s="56">
       <c r="A20" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -1730,7 +2698,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="41">
+    <row r="21" ht="15.75" customHeight="1" s="56">
       <c r="A21" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -1758,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="41">
+    <row r="22" ht="15.75" customHeight="1" s="56">
       <c r="A22" s="21" t="n"/>
       <c r="B22" s="22" t="n"/>
       <c r="C22" s="22" t="n"/>
@@ -1795,7 +2763,7 @@
       <c r="G24" s="34" t="n"/>
       <c r="H24" s="34" t="n"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="41">
+    <row r="25" ht="15.75" customHeight="1" s="56">
       <c r="A25" s="33" t="inlineStr">
         <is>
           <t>Truly Yours,</t>
@@ -1833,7 +2801,7 @@
       <c r="G27" s="10" t="n"/>
       <c r="H27" s="10" t="n"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="41">
+    <row r="28" ht="15.75" customHeight="1" s="56">
       <c r="A28" s="33" t="inlineStr">
         <is>
           <t xml:space="preserve">   (Chief Executive)</t>
@@ -1875,7 +2843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1883,16 +2851,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="41" min="1" max="3"/>
-    <col width="14.85546875" customWidth="1" style="41" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="41" min="5" max="7"/>
-    <col width="13.85546875" customWidth="1" style="41" min="8" max="8"/>
-    <col width="9.140625" customWidth="1" style="41" min="9" max="94"/>
-    <col width="9.140625" customWidth="1" style="41" min="95" max="16384"/>
+    <col width="9.140625" customWidth="1" style="56" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="56" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="56" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="56" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="56" min="9" max="95"/>
+    <col width="9.140625" customWidth="1" style="56" min="96" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="120.75" customHeight="1" s="41" thickBot="1"/>
-    <row r="2" ht="15.75" customHeight="1" s="41">
+    <row r="1" ht="120.75" customHeight="1" s="56" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="56">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="33" t="n"/>
       <c r="C2" s="1" t="inlineStr">
@@ -1902,7 +2870,7 @@
       </c>
       <c r="D2" s="64" t="inlineStr">
         <is>
-          <t>LB003-03-2021</t>
+          <t>LB001-03-2021</t>
         </is>
       </c>
       <c r="E2" s="62" t="n"/>
@@ -1910,7 +2878,7 @@
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="2" t="n"/>
     </row>
-    <row r="3" ht="16.5" customHeight="1" s="41" thickBot="1">
+    <row r="3" ht="16.5" customHeight="1" s="56" thickBot="1">
       <c r="A3" s="4" t="n"/>
       <c r="B3" s="33" t="n"/>
       <c r="C3" s="3" t="inlineStr">
@@ -1928,7 +2896,7 @@
       <c r="G3" s="4" t="n"/>
       <c r="H3" s="2" t="n"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1" s="41" thickBot="1">
+    <row r="4" ht="16.5" customHeight="1" s="56" thickBot="1">
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="33" t="n"/>
       <c r="C4" s="3" t="inlineStr">
@@ -1946,7 +2914,7 @@
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="2" t="n"/>
     </row>
-    <row r="5" ht="16.5" customHeight="1" s="41" thickBot="1">
+    <row r="5" ht="16.5" customHeight="1" s="56" thickBot="1">
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="33" t="n"/>
       <c r="C5" s="3" t="inlineStr">
@@ -1964,7 +2932,7 @@
       <c r="G5" s="4" t="n"/>
       <c r="H5" s="2" t="n"/>
     </row>
-    <row r="6" ht="21" customHeight="1" s="41">
+    <row r="6" ht="21" customHeight="1" s="56">
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="33" t="n"/>
       <c r="C6" s="33" t="n"/>
@@ -1974,27 +2942,27 @@
       <c r="G6" s="4" t="n"/>
       <c r="H6" s="2" t="n"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="41">
+    <row r="7" ht="15.75" customHeight="1" s="56">
       <c r="A7" s="30" t="inlineStr">
         <is>
-          <t>13/Mar/2021</t>
+          <t>18/Mar/2021</t>
         </is>
       </c>
       <c r="B7" s="30" t="n"/>
       <c r="C7" s="30" t="n"/>
       <c r="D7" s="33" t="n"/>
       <c r="E7" s="4" t="n"/>
-      <c r="F7" s="40" t="inlineStr">
+      <c r="F7" s="55" t="inlineStr">
         <is>
           <t>Complaint No.</t>
         </is>
       </c>
-      <c r="G7" s="40" t="n"/>
+      <c r="G7" s="55" t="n"/>
       <c r="H7" s="5" t="n">
-        <v>190998</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="56">
       <c r="A8" s="33" t="inlineStr">
         <is>
           <t>BANK AL-HABIB</t>
@@ -2008,10 +2976,10 @@
       <c r="G8" s="4" t="n"/>
       <c r="H8" s="5" t="n"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="41">
+    <row r="9" ht="15.75" customHeight="1" s="56">
       <c r="A9" s="33" t="inlineStr">
         <is>
-          <t>FG,LHR ZONE</t>
+          <t>ABC,LHR ZONE</t>
         </is>
       </c>
       <c r="B9" s="33" t="n"/>
@@ -2022,7 +2990,7 @@
       <c r="G9" s="4" t="n"/>
       <c r="H9" s="2" t="n"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="41">
+    <row r="10" ht="15.75" customHeight="1" s="56">
       <c r="A10" s="66" t="n"/>
       <c r="D10" s="33" t="n"/>
       <c r="E10" s="4" t="n"/>
@@ -2030,7 +2998,7 @@
       <c r="G10" s="4" t="n"/>
       <c r="H10" s="2" t="n"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="41">
+    <row r="11" ht="15.75" customHeight="1" s="56">
       <c r="A11" s="32" t="n"/>
       <c r="B11" s="32" t="n"/>
       <c r="C11" s="32" t="n"/>
@@ -2041,20 +3009,20 @@
       <c r="H11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="40" t="inlineStr">
+      <c r="A12" s="55" t="inlineStr">
         <is>
           <t>Subject:      Bill for subject_line:</t>
         </is>
       </c>
-      <c r="B12" s="40" t="n"/>
-      <c r="C12" s="40" t="n"/>
-      <c r="D12" s="40" t="n"/>
-      <c r="E12" s="40" t="n"/>
-      <c r="F12" s="40" t="n"/>
-      <c r="G12" s="40" t="n"/>
-      <c r="H12" s="40" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="41">
+      <c r="B12" s="55" t="n"/>
+      <c r="C12" s="55" t="n"/>
+      <c r="D12" s="55" t="n"/>
+      <c r="E12" s="55" t="n"/>
+      <c r="F12" s="55" t="n"/>
+      <c r="G12" s="55" t="n"/>
+      <c r="H12" s="55" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="56">
       <c r="A13" s="4" t="n"/>
       <c r="B13" s="33" t="n"/>
       <c r="C13" s="33" t="n"/>
@@ -2112,7 +3080,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="31.5" customHeight="1" s="41">
+    <row r="16" ht="31.5" customHeight="1" s="56">
       <c r="A16" s="67" t="n">
         <v>1</v>
       </c>
@@ -2134,7 +3102,7 @@
         <v>4670</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="41">
+    <row r="17" ht="15.75" customHeight="1" s="56">
       <c r="A17" s="67" t="n"/>
       <c r="B17" s="68" t="n"/>
       <c r="C17" s="62" t="n"/>
@@ -2144,7 +3112,7 @@
       <c r="G17" s="67" t="n"/>
       <c r="H17" s="69" t="n"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="41">
+    <row r="18" ht="15.75" customHeight="1" s="56">
       <c r="A18" s="21" t="n"/>
       <c r="B18" s="22" t="n"/>
       <c r="C18" s="22" t="n"/>
@@ -2161,7 +3129,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="41">
+    <row r="19" ht="15.75" customHeight="1" s="56">
       <c r="A19" s="21" t="n"/>
       <c r="B19" s="22" t="n"/>
       <c r="C19" s="22" t="n"/>
@@ -2178,7 +3146,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="41">
+    <row r="20" ht="15.75" customHeight="1" s="56">
       <c r="A20" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -2192,7 +3160,7 @@
       <c r="C20" s="27" t="n"/>
       <c r="D20" s="28" t="n"/>
       <c r="E20" s="65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="65" t="inlineStr">
         <is>
@@ -2207,7 +3175,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="41">
+    <row r="21" ht="15.75" customHeight="1" s="56">
       <c r="A21" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -2235,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="41">
+    <row r="22" ht="15.75" customHeight="1" s="56">
       <c r="A22" s="21" t="n"/>
       <c r="B22" s="22" t="n"/>
       <c r="C22" s="22" t="n"/>
@@ -2272,7 +3240,7 @@
       <c r="G24" s="34" t="n"/>
       <c r="H24" s="34" t="n"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="41">
+    <row r="25" ht="15.75" customHeight="1" s="56">
       <c r="A25" s="33" t="inlineStr">
         <is>
           <t>Truly Yours,</t>
@@ -2310,7 +3278,7 @@
       <c r="G27" s="10" t="n"/>
       <c r="H27" s="10" t="n"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="41">
+    <row r="28" ht="15.75" customHeight="1" s="56">
       <c r="A28" s="33" t="inlineStr">
         <is>
           <t xml:space="preserve">   (Chief Executive)</t>
@@ -2324,20 +3292,2894 @@
       <c r="G28" s="10" t="n"/>
       <c r="H28" s="10" t="n"/>
     </row>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
+    <row r="43">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="56" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="56" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="56" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="56" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="56" min="9" max="95"/>
+    <col width="9.140625" customWidth="1" style="56" min="96" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="120.75" customHeight="1" s="56" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="56">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="33" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D2" s="64" t="inlineStr">
+        <is>
+          <t>LB002-03-2021</t>
+        </is>
+      </c>
+      <c r="E2" s="62" t="n"/>
+      <c r="F2" s="63" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>STRN</t>
+        </is>
+      </c>
+      <c r="D3" s="64" t="inlineStr">
+        <is>
+          <t>8187702-6</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="33" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NTN</t>
+        </is>
+      </c>
+      <c r="D4" s="64" t="inlineStr">
+        <is>
+          <t>35101-2935417-3</t>
+        </is>
+      </c>
+      <c r="E4" s="62" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="33" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>AC/NO</t>
+        </is>
+      </c>
+      <c r="D5" s="65" t="inlineStr">
+        <is>
+          <t>0018 0981 0217 5901</t>
+        </is>
+      </c>
+      <c r="E5" s="62" t="n"/>
+      <c r="F5" s="63" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" s="56">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="33" t="n"/>
+      <c r="C6" s="33" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="56">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>18/Mar/2021</t>
+        </is>
+      </c>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="30" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="55" t="inlineStr">
+        <is>
+          <t>Complaint No.</t>
+        </is>
+      </c>
+      <c r="G7" s="55" t="n"/>
+      <c r="H7" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="56">
+      <c r="A8" s="33" t="inlineStr">
+        <is>
+          <t>BANK AL-HABIB</t>
+        </is>
+      </c>
+      <c r="B8" s="33" t="n"/>
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="56">
+      <c r="A9" s="33" t="inlineStr">
+        <is>
+          <t>ABC,LHR ZONE</t>
+        </is>
+      </c>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="32" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="56">
+      <c r="A10" s="66" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="56">
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="32" t="n"/>
+      <c r="C11" s="32" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="55" t="inlineStr">
+        <is>
+          <t>Subject:      Bill for subject_line:</t>
+        </is>
+      </c>
+      <c r="B12" s="55" t="n"/>
+      <c r="C12" s="55" t="n"/>
+      <c r="D12" s="55" t="n"/>
+      <c r="E12" s="55" t="n"/>
+      <c r="F12" s="55" t="n"/>
+      <c r="G12" s="55" t="n"/>
+      <c r="H12" s="55" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="56">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="33" t="n"/>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="33" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="61" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B14" s="62" t="n"/>
+      <c r="C14" s="62" t="n"/>
+      <c r="D14" s="62" t="n"/>
+      <c r="E14" s="62" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="62" t="n"/>
+      <c r="H14" s="63" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="61" t="inlineStr">
+        <is>
+          <t>Sr No</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C15" s="62" t="n"/>
+      <c r="D15" s="63" t="n"/>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="F15" s="61" t="inlineStr">
+        <is>
+          <t>Job</t>
+        </is>
+      </c>
+      <c r="G15" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rate </t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="56">
+      <c r="A16" s="67" t="n"/>
+      <c r="B16" s="68" t="n"/>
+      <c r="C16" s="62" t="n"/>
+      <c r="D16" s="63" t="n"/>
+      <c r="E16" s="67" t="n"/>
+      <c r="F16" s="65" t="n"/>
+      <c r="G16" s="67" t="n"/>
+      <c r="H16" s="69" t="n"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="56">
+      <c r="A17" s="67" t="n"/>
+      <c r="B17" s="68" t="n"/>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="67" t="n"/>
+      <c r="F17" s="65" t="n"/>
+      <c r="G17" s="67" t="n"/>
+      <c r="H17" s="69" t="n"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="56">
+      <c r="A18" s="21" t="n"/>
+      <c r="B18" s="22" t="n"/>
+      <c r="C18" s="22" t="n"/>
+      <c r="D18" s="22" t="n"/>
+      <c r="E18" s="22" t="n"/>
+      <c r="F18" s="22" t="n"/>
+      <c r="G18" s="22" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="H18" s="31">
+        <f>SUM(H16:H17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="56">
+      <c r="A19" s="21" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="22" t="n"/>
+      <c r="D19" s="22" t="n"/>
+      <c r="E19" s="22" t="n"/>
+      <c r="F19" s="22" t="n"/>
+      <c r="G19" s="22" t="inlineStr">
+        <is>
+          <t>Tax (16%)</t>
+        </is>
+      </c>
+      <c r="H19" s="31">
+        <f>H18*0.16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="56">
+      <c r="A20" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B20" s="26" t="inlineStr">
+        <is>
+          <t>Visit Charges</t>
+        </is>
+      </c>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="28" t="n"/>
+      <c r="E20" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>780</v>
+      </c>
+      <c r="H20" s="8">
+        <f>G20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="56">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="26" t="inlineStr">
+        <is>
+          <t>Out of City Charges</t>
+        </is>
+      </c>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="28" t="n"/>
+      <c r="E21" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="56">
+      <c r="A22" s="21" t="n"/>
+      <c r="B22" s="22" t="n"/>
+      <c r="C22" s="22" t="n"/>
+      <c r="D22" s="22" t="n"/>
+      <c r="E22" s="22" t="n"/>
+      <c r="F22" s="22" t="n"/>
+      <c r="G22" s="22" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H18:H21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="34" t="n"/>
+      <c r="B23" s="34" t="n"/>
+      <c r="C23" s="34" t="n"/>
+      <c r="D23" s="34" t="n"/>
+      <c r="E23" s="34" t="n"/>
+      <c r="F23" s="34" t="n"/>
+      <c r="G23" s="34" t="n"/>
+      <c r="H23" s="34" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="n"/>
+      <c r="B24" s="34" t="n"/>
+      <c r="C24" s="34" t="n"/>
+      <c r="D24" s="34" t="n"/>
+      <c r="E24" s="34" t="n"/>
+      <c r="F24" s="34" t="n"/>
+      <c r="G24" s="34" t="n"/>
+      <c r="H24" s="34" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="56">
+      <c r="A25" s="33" t="inlineStr">
+        <is>
+          <t>Truly Yours,</t>
+        </is>
+      </c>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="n"/>
+      <c r="B26" s="34" t="n"/>
+      <c r="C26" s="34" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="34" t="n"/>
+      <c r="F26" s="34" t="n"/>
+      <c r="G26" s="34" t="n"/>
+      <c r="H26" s="34" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="29" t="inlineStr">
+        <is>
+          <t>ASAD ALI</t>
+        </is>
+      </c>
+      <c r="B27" s="29" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="10" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="10" t="n"/>
+      <c r="G27" s="10" t="n"/>
+      <c r="H27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="56">
+      <c r="A28" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   (Chief Executive)</t>
+        </is>
+      </c>
+      <c r="B28" s="33" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+    </row>
+    <row r="43">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="56" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="56" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="56" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="56" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="56" min="9" max="95"/>
+    <col width="9.140625" customWidth="1" style="56" min="96" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="120.75" customHeight="1" s="56" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="56">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="33" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D2" s="64" t="inlineStr">
+        <is>
+          <t>LB003-03-2021</t>
+        </is>
+      </c>
+      <c r="E2" s="62" t="n"/>
+      <c r="F2" s="63" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>STRN</t>
+        </is>
+      </c>
+      <c r="D3" s="64" t="inlineStr">
+        <is>
+          <t>8187702-6</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="33" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NTN</t>
+        </is>
+      </c>
+      <c r="D4" s="64" t="inlineStr">
+        <is>
+          <t>35101-2935417-3</t>
+        </is>
+      </c>
+      <c r="E4" s="62" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="33" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>AC/NO</t>
+        </is>
+      </c>
+      <c r="D5" s="65" t="inlineStr">
+        <is>
+          <t>0018 0981 0217 5901</t>
+        </is>
+      </c>
+      <c r="E5" s="62" t="n"/>
+      <c r="F5" s="63" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" s="56">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="33" t="n"/>
+      <c r="C6" s="33" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="56">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>18/Mar/2021</t>
+        </is>
+      </c>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="30" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="55" t="inlineStr">
+        <is>
+          <t>Complaint No.</t>
+        </is>
+      </c>
+      <c r="G7" s="55" t="n"/>
+      <c r="H7" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="56">
+      <c r="A8" s="33" t="inlineStr">
+        <is>
+          <t>BANK AL-HABIB</t>
+        </is>
+      </c>
+      <c r="B8" s="33" t="n"/>
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="56">
+      <c r="A9" s="33" t="inlineStr">
+        <is>
+          <t>ABC,LHR ZONE</t>
+        </is>
+      </c>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="32" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="56">
+      <c r="A10" s="66" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="56">
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="32" t="n"/>
+      <c r="C11" s="32" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="55" t="inlineStr">
+        <is>
+          <t>Subject:      Bill for subject_line:</t>
+        </is>
+      </c>
+      <c r="B12" s="55" t="n"/>
+      <c r="C12" s="55" t="n"/>
+      <c r="D12" s="55" t="n"/>
+      <c r="E12" s="55" t="n"/>
+      <c r="F12" s="55" t="n"/>
+      <c r="G12" s="55" t="n"/>
+      <c r="H12" s="55" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="56">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="33" t="n"/>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="33" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="61" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B14" s="62" t="n"/>
+      <c r="C14" s="62" t="n"/>
+      <c r="D14" s="62" t="n"/>
+      <c r="E14" s="62" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="62" t="n"/>
+      <c r="H14" s="63" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="61" t="inlineStr">
+        <is>
+          <t>Sr No</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C15" s="62" t="n"/>
+      <c r="D15" s="63" t="n"/>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="F15" s="61" t="inlineStr">
+        <is>
+          <t>Job</t>
+        </is>
+      </c>
+      <c r="G15" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rate </t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="31.5" customHeight="1" s="56">
+      <c r="A16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Charging ( upto to 2 Ton) Inverter AC Unit Unit </t>
+        </is>
+      </c>
+      <c r="C16" s="62" t="n"/>
+      <c r="D16" s="63" t="n"/>
+      <c r="E16" s="67" t="inlineStr">
+        <is>
+          <t>2rft</t>
+        </is>
+      </c>
+      <c r="F16" s="65" t="n"/>
+      <c r="G16" s="67" t="n">
+        <v>4670</v>
+      </c>
+      <c r="H16" s="69" t="n">
+        <v>9340</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="56">
+      <c r="A17" s="67" t="n"/>
+      <c r="B17" s="68" t="n"/>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="67" t="n"/>
+      <c r="F17" s="65" t="n"/>
+      <c r="G17" s="67" t="n"/>
+      <c r="H17" s="69" t="n"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="56">
+      <c r="A18" s="21" t="n"/>
+      <c r="B18" s="22" t="n"/>
+      <c r="C18" s="22" t="n"/>
+      <c r="D18" s="22" t="n"/>
+      <c r="E18" s="22" t="n"/>
+      <c r="F18" s="22" t="n"/>
+      <c r="G18" s="22" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="H18" s="31">
+        <f>SUM(H16:H17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="56">
+      <c r="A19" s="21" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="22" t="n"/>
+      <c r="D19" s="22" t="n"/>
+      <c r="E19" s="22" t="n"/>
+      <c r="F19" s="22" t="n"/>
+      <c r="G19" s="22" t="inlineStr">
+        <is>
+          <t>Tax (16%)</t>
+        </is>
+      </c>
+      <c r="H19" s="31">
+        <f>H18*0.16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="56">
+      <c r="A20" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B20" s="26" t="inlineStr">
+        <is>
+          <t>Visit Charges</t>
+        </is>
+      </c>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="28" t="n"/>
+      <c r="E20" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>780</v>
+      </c>
+      <c r="H20" s="8">
+        <f>G20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="56">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="26" t="inlineStr">
+        <is>
+          <t>Out of City Charges</t>
+        </is>
+      </c>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="28" t="n"/>
+      <c r="E21" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="56">
+      <c r="A22" s="21" t="n"/>
+      <c r="B22" s="22" t="n"/>
+      <c r="C22" s="22" t="n"/>
+      <c r="D22" s="22" t="n"/>
+      <c r="E22" s="22" t="n"/>
+      <c r="F22" s="22" t="n"/>
+      <c r="G22" s="22" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H18:H21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="34" t="n"/>
+      <c r="B23" s="34" t="n"/>
+      <c r="C23" s="34" t="n"/>
+      <c r="D23" s="34" t="n"/>
+      <c r="E23" s="34" t="n"/>
+      <c r="F23" s="34" t="n"/>
+      <c r="G23" s="34" t="n"/>
+      <c r="H23" s="34" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="n"/>
+      <c r="B24" s="34" t="n"/>
+      <c r="C24" s="34" t="n"/>
+      <c r="D24" s="34" t="n"/>
+      <c r="E24" s="34" t="n"/>
+      <c r="F24" s="34" t="n"/>
+      <c r="G24" s="34" t="n"/>
+      <c r="H24" s="34" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="56">
+      <c r="A25" s="33" t="inlineStr">
+        <is>
+          <t>Truly Yours,</t>
+        </is>
+      </c>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="n"/>
+      <c r="B26" s="34" t="n"/>
+      <c r="C26" s="34" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="34" t="n"/>
+      <c r="F26" s="34" t="n"/>
+      <c r="G26" s="34" t="n"/>
+      <c r="H26" s="34" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="29" t="inlineStr">
+        <is>
+          <t>ASAD ALI</t>
+        </is>
+      </c>
+      <c r="B27" s="29" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="10" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="10" t="n"/>
+      <c r="G27" s="10" t="n"/>
+      <c r="H27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="56">
+      <c r="A28" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   (Chief Executive)</t>
+        </is>
+      </c>
+      <c r="B28" s="33" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+    </row>
+    <row r="43">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="56" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="56" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="56" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="56" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="56" min="9" max="95"/>
+    <col width="9.140625" customWidth="1" style="56" min="96" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="120.75" customHeight="1" s="56" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="56">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="33" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D2" s="64" t="inlineStr">
+        <is>
+          <t>LB004-03-2021</t>
+        </is>
+      </c>
+      <c r="E2" s="62" t="n"/>
+      <c r="F2" s="63" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>STRN</t>
+        </is>
+      </c>
+      <c r="D3" s="64" t="inlineStr">
+        <is>
+          <t>8187702-6</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="33" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NTN</t>
+        </is>
+      </c>
+      <c r="D4" s="64" t="inlineStr">
+        <is>
+          <t>35101-2935417-3</t>
+        </is>
+      </c>
+      <c r="E4" s="62" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="33" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>AC/NO</t>
+        </is>
+      </c>
+      <c r="D5" s="65" t="inlineStr">
+        <is>
+          <t>0018 0981 0217 5901</t>
+        </is>
+      </c>
+      <c r="E5" s="62" t="n"/>
+      <c r="F5" s="63" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" s="56">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="33" t="n"/>
+      <c r="C6" s="33" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="56">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>18/Mar/2021</t>
+        </is>
+      </c>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="30" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="55" t="inlineStr">
+        <is>
+          <t>Complaint No.</t>
+        </is>
+      </c>
+      <c r="G7" s="55" t="n"/>
+      <c r="H7" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="56">
+      <c r="A8" s="33" t="inlineStr">
+        <is>
+          <t>BANK AL-HABIB</t>
+        </is>
+      </c>
+      <c r="B8" s="33" t="n"/>
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="56">
+      <c r="A9" s="33" t="inlineStr">
+        <is>
+          <t>RAVI ROAD Branch,LHR ZONE</t>
+        </is>
+      </c>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="32" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="56">
+      <c r="A10" s="66" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="56">
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="32" t="n"/>
+      <c r="C11" s="32" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="55" t="inlineStr">
+        <is>
+          <t>Subject:      Bill for subject_line:</t>
+        </is>
+      </c>
+      <c r="B12" s="55" t="n"/>
+      <c r="C12" s="55" t="n"/>
+      <c r="D12" s="55" t="n"/>
+      <c r="E12" s="55" t="n"/>
+      <c r="F12" s="55" t="n"/>
+      <c r="G12" s="55" t="n"/>
+      <c r="H12" s="55" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="56">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="33" t="n"/>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="33" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="61" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B14" s="62" t="n"/>
+      <c r="C14" s="62" t="n"/>
+      <c r="D14" s="62" t="n"/>
+      <c r="E14" s="62" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="62" t="n"/>
+      <c r="H14" s="63" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="61" t="inlineStr">
+        <is>
+          <t>Sr No</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C15" s="62" t="n"/>
+      <c r="D15" s="63" t="n"/>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="F15" s="61" t="inlineStr">
+        <is>
+          <t>Job</t>
+        </is>
+      </c>
+      <c r="G15" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rate </t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="31.5" customHeight="1" s="56">
+      <c r="A16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Charging ( upto to 2 Ton) Inverter AC Unit Unit </t>
+        </is>
+      </c>
+      <c r="C16" s="62" t="n"/>
+      <c r="D16" s="63" t="n"/>
+      <c r="E16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="65" t="n"/>
+      <c r="G16" s="67" t="n">
+        <v>4670</v>
+      </c>
+      <c r="H16" s="69" t="n">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="56">
+      <c r="A17" s="67" t="n"/>
+      <c r="B17" s="68" t="n"/>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="67" t="n"/>
+      <c r="F17" s="65" t="n"/>
+      <c r="G17" s="67" t="n"/>
+      <c r="H17" s="69" t="n"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="56">
+      <c r="A18" s="21" t="n"/>
+      <c r="B18" s="22" t="n"/>
+      <c r="C18" s="22" t="n"/>
+      <c r="D18" s="22" t="n"/>
+      <c r="E18" s="22" t="n"/>
+      <c r="F18" s="22" t="n"/>
+      <c r="G18" s="22" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="H18" s="31">
+        <f>SUM(H16:H17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="56">
+      <c r="A19" s="21" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="22" t="n"/>
+      <c r="D19" s="22" t="n"/>
+      <c r="E19" s="22" t="n"/>
+      <c r="F19" s="22" t="n"/>
+      <c r="G19" s="22" t="inlineStr">
+        <is>
+          <t>Tax (16%)</t>
+        </is>
+      </c>
+      <c r="H19" s="31">
+        <f>H18*0.16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="56">
+      <c r="A20" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B20" s="26" t="inlineStr">
+        <is>
+          <t>Visit Charges</t>
+        </is>
+      </c>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="28" t="n"/>
+      <c r="E20" s="65" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>780</v>
+      </c>
+      <c r="H20" s="8">
+        <f>G20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="56">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="26" t="inlineStr">
+        <is>
+          <t>Out of City Charges</t>
+        </is>
+      </c>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="28" t="n"/>
+      <c r="E21" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="56">
+      <c r="A22" s="21" t="n"/>
+      <c r="B22" s="22" t="n"/>
+      <c r="C22" s="22" t="n"/>
+      <c r="D22" s="22" t="n"/>
+      <c r="E22" s="22" t="n"/>
+      <c r="F22" s="22" t="n"/>
+      <c r="G22" s="22" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H18:H21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="34" t="n"/>
+      <c r="B23" s="34" t="n"/>
+      <c r="C23" s="34" t="n"/>
+      <c r="D23" s="34" t="n"/>
+      <c r="E23" s="34" t="n"/>
+      <c r="F23" s="34" t="n"/>
+      <c r="G23" s="34" t="n"/>
+      <c r="H23" s="34" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="n"/>
+      <c r="B24" s="34" t="n"/>
+      <c r="C24" s="34" t="n"/>
+      <c r="D24" s="34" t="n"/>
+      <c r="E24" s="34" t="n"/>
+      <c r="F24" s="34" t="n"/>
+      <c r="G24" s="34" t="n"/>
+      <c r="H24" s="34" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="56">
+      <c r="A25" s="33" t="inlineStr">
+        <is>
+          <t>Truly Yours,</t>
+        </is>
+      </c>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="n"/>
+      <c r="B26" s="34" t="n"/>
+      <c r="C26" s="34" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="34" t="n"/>
+      <c r="F26" s="34" t="n"/>
+      <c r="G26" s="34" t="n"/>
+      <c r="H26" s="34" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="29" t="inlineStr">
+        <is>
+          <t>ASAD ALI</t>
+        </is>
+      </c>
+      <c r="B27" s="29" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="10" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="10" t="n"/>
+      <c r="G27" s="10" t="n"/>
+      <c r="H27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="56">
+      <c r="A28" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   (Chief Executive)</t>
+        </is>
+      </c>
+      <c r="B28" s="33" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+    </row>
+    <row r="43">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="56" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="56" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="56" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="56" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="56" min="9" max="95"/>
+    <col width="9.140625" customWidth="1" style="56" min="96" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="120.75" customHeight="1" s="56" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="56">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="33" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D2" s="64" t="inlineStr">
+        <is>
+          <t>LB005-03-2021</t>
+        </is>
+      </c>
+      <c r="E2" s="62" t="n"/>
+      <c r="F2" s="63" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>STRN</t>
+        </is>
+      </c>
+      <c r="D3" s="64" t="inlineStr">
+        <is>
+          <t>8187702-6</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="33" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NTN</t>
+        </is>
+      </c>
+      <c r="D4" s="64" t="inlineStr">
+        <is>
+          <t>35101-2935417-3</t>
+        </is>
+      </c>
+      <c r="E4" s="62" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="33" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>AC/NO</t>
+        </is>
+      </c>
+      <c r="D5" s="65" t="inlineStr">
+        <is>
+          <t>0018 0981 0217 5901</t>
+        </is>
+      </c>
+      <c r="E5" s="62" t="n"/>
+      <c r="F5" s="63" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" s="56">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="33" t="n"/>
+      <c r="C6" s="33" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="56">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>18/Mar/2021</t>
+        </is>
+      </c>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="30" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="55" t="inlineStr">
+        <is>
+          <t>Complaint No.</t>
+        </is>
+      </c>
+      <c r="G7" s="55" t="n"/>
+      <c r="H7" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="56">
+      <c r="A8" s="33" t="inlineStr">
+        <is>
+          <t>BANK AL-HABIB</t>
+        </is>
+      </c>
+      <c r="B8" s="33" t="n"/>
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="56">
+      <c r="A9" s="33" t="inlineStr">
+        <is>
+          <t>TIMBER MARKET Branch,LHR ZONE</t>
+        </is>
+      </c>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="32" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="56">
+      <c r="A10" s="66" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="56">
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="32" t="n"/>
+      <c r="C11" s="32" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="55" t="inlineStr">
+        <is>
+          <t>Subject:      Bill for subject_line:</t>
+        </is>
+      </c>
+      <c r="B12" s="55" t="n"/>
+      <c r="C12" s="55" t="n"/>
+      <c r="D12" s="55" t="n"/>
+      <c r="E12" s="55" t="n"/>
+      <c r="F12" s="55" t="n"/>
+      <c r="G12" s="55" t="n"/>
+      <c r="H12" s="55" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="56">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="33" t="n"/>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="33" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="61" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B14" s="62" t="n"/>
+      <c r="C14" s="62" t="n"/>
+      <c r="D14" s="62" t="n"/>
+      <c r="E14" s="62" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="62" t="n"/>
+      <c r="H14" s="63" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="61" t="inlineStr">
+        <is>
+          <t>Sr No</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C15" s="62" t="n"/>
+      <c r="D15" s="63" t="n"/>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="F15" s="61" t="inlineStr">
+        <is>
+          <t>Job</t>
+        </is>
+      </c>
+      <c r="G15" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rate </t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="31.5" customHeight="1" s="56">
+      <c r="A16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Charging ( upto to 2 Ton) Inverter AC Unit Unit </t>
+        </is>
+      </c>
+      <c r="C16" s="62" t="n"/>
+      <c r="D16" s="63" t="n"/>
+      <c r="E16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="65" t="n"/>
+      <c r="G16" s="67" t="n">
+        <v>4670</v>
+      </c>
+      <c r="H16" s="69" t="n">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="17" ht="31.5" customHeight="1" s="56">
+      <c r="A17" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Charging ( upto to 2 Ton) Inverter AC Unit Unit </t>
+        </is>
+      </c>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="65" t="n"/>
+      <c r="G17" s="67" t="n">
+        <v>4670</v>
+      </c>
+      <c r="H17" s="69" t="n">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="56">
+      <c r="A18" s="21" t="n"/>
+      <c r="B18" s="22" t="n"/>
+      <c r="C18" s="22" t="n"/>
+      <c r="D18" s="22" t="n"/>
+      <c r="E18" s="22" t="n"/>
+      <c r="F18" s="22" t="n"/>
+      <c r="G18" s="22" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="H18" s="31">
+        <f>SUM(H16:H17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="56">
+      <c r="A19" s="21" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="22" t="n"/>
+      <c r="D19" s="22" t="n"/>
+      <c r="E19" s="22" t="n"/>
+      <c r="F19" s="22" t="n"/>
+      <c r="G19" s="22" t="inlineStr">
+        <is>
+          <t>Tax (16%)</t>
+        </is>
+      </c>
+      <c r="H19" s="31">
+        <f>H18*0.16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="56">
+      <c r="A20" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B20" s="26" t="inlineStr">
+        <is>
+          <t>Visit Charges</t>
+        </is>
+      </c>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="28" t="n"/>
+      <c r="E20" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>780</v>
+      </c>
+      <c r="H20" s="8">
+        <f>G20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="56">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="26" t="inlineStr">
+        <is>
+          <t>Out of City Charges</t>
+        </is>
+      </c>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="28" t="n"/>
+      <c r="E21" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="56">
+      <c r="A22" s="21" t="n"/>
+      <c r="B22" s="22" t="n"/>
+      <c r="C22" s="22" t="n"/>
+      <c r="D22" s="22" t="n"/>
+      <c r="E22" s="22" t="n"/>
+      <c r="F22" s="22" t="n"/>
+      <c r="G22" s="22" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H18:H21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="34" t="n"/>
+      <c r="B23" s="34" t="n"/>
+      <c r="C23" s="34" t="n"/>
+      <c r="D23" s="34" t="n"/>
+      <c r="E23" s="34" t="n"/>
+      <c r="F23" s="34" t="n"/>
+      <c r="G23" s="34" t="n"/>
+      <c r="H23" s="34" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="n"/>
+      <c r="B24" s="34" t="n"/>
+      <c r="C24" s="34" t="n"/>
+      <c r="D24" s="34" t="n"/>
+      <c r="E24" s="34" t="n"/>
+      <c r="F24" s="34" t="n"/>
+      <c r="G24" s="34" t="n"/>
+      <c r="H24" s="34" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="56">
+      <c r="A25" s="33" t="inlineStr">
+        <is>
+          <t>Truly Yours,</t>
+        </is>
+      </c>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="n"/>
+      <c r="B26" s="34" t="n"/>
+      <c r="C26" s="34" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="34" t="n"/>
+      <c r="F26" s="34" t="n"/>
+      <c r="G26" s="34" t="n"/>
+      <c r="H26" s="34" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="29" t="inlineStr">
+        <is>
+          <t>ASAD ALI</t>
+        </is>
+      </c>
+      <c r="B27" s="29" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="10" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="10" t="n"/>
+      <c r="G27" s="10" t="n"/>
+      <c r="H27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="56">
+      <c r="A28" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   (Chief Executive)</t>
+        </is>
+      </c>
+      <c r="B28" s="33" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+    </row>
+    <row r="43">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="56" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="56" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="56" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="56" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="56" min="9" max="95"/>
+    <col width="9.140625" customWidth="1" style="56" min="96" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="120.75" customHeight="1" s="56" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="56">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="33" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D2" s="64" t="inlineStr">
+        <is>
+          <t>LB005-03-2021</t>
+        </is>
+      </c>
+      <c r="E2" s="62" t="n"/>
+      <c r="F2" s="63" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>STRN</t>
+        </is>
+      </c>
+      <c r="D3" s="64" t="inlineStr">
+        <is>
+          <t>8187702-6</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="33" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NTN</t>
+        </is>
+      </c>
+      <c r="D4" s="64" t="inlineStr">
+        <is>
+          <t>35101-2935417-3</t>
+        </is>
+      </c>
+      <c r="E4" s="62" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="33" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>AC/NO</t>
+        </is>
+      </c>
+      <c r="D5" s="65" t="inlineStr">
+        <is>
+          <t>0018 0981 0217 5901</t>
+        </is>
+      </c>
+      <c r="E5" s="62" t="n"/>
+      <c r="F5" s="63" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" s="56">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="33" t="n"/>
+      <c r="C6" s="33" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="56">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>18/Mar/2021</t>
+        </is>
+      </c>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="30" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="55" t="inlineStr">
+        <is>
+          <t>Complaint No.</t>
+        </is>
+      </c>
+      <c r="G7" s="55" t="n"/>
+      <c r="H7" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="56">
+      <c r="A8" s="33" t="inlineStr">
+        <is>
+          <t>BANK AL-HABIB</t>
+        </is>
+      </c>
+      <c r="B8" s="33" t="n"/>
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="56">
+      <c r="A9" s="33" t="inlineStr">
+        <is>
+          <t>TIMBER MARKET Branch,LHR ZONE</t>
+        </is>
+      </c>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="32" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="56">
+      <c r="A10" s="66" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="56">
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="32" t="n"/>
+      <c r="C11" s="32" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="55" t="inlineStr">
+        <is>
+          <t>Subject:      Bill for subject_line:</t>
+        </is>
+      </c>
+      <c r="B12" s="55" t="n"/>
+      <c r="C12" s="55" t="n"/>
+      <c r="D12" s="55" t="n"/>
+      <c r="E12" s="55" t="n"/>
+      <c r="F12" s="55" t="n"/>
+      <c r="G12" s="55" t="n"/>
+      <c r="H12" s="55" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="56">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="33" t="n"/>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="33" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="61" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B14" s="62" t="n"/>
+      <c r="C14" s="62" t="n"/>
+      <c r="D14" s="62" t="n"/>
+      <c r="E14" s="62" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="62" t="n"/>
+      <c r="H14" s="63" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="61" t="inlineStr">
+        <is>
+          <t>Sr No</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C15" s="62" t="n"/>
+      <c r="D15" s="63" t="n"/>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="F15" s="61" t="inlineStr">
+        <is>
+          <t>Job</t>
+        </is>
+      </c>
+      <c r="G15" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rate </t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="31.5" customHeight="1" s="56">
+      <c r="A16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Charging ( upto to 2 Ton) Inverter AC Unit Unit </t>
+        </is>
+      </c>
+      <c r="C16" s="62" t="n"/>
+      <c r="D16" s="63" t="n"/>
+      <c r="E16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="65" t="n"/>
+      <c r="G16" s="67" t="n">
+        <v>4670</v>
+      </c>
+      <c r="H16" s="69" t="n">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="17" ht="31.5" customHeight="1" s="56">
+      <c r="A17" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Charging ( upto to 2 Ton) Inverter AC Unit Unit </t>
+        </is>
+      </c>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="65" t="n"/>
+      <c r="G17" s="67" t="n">
+        <v>4670</v>
+      </c>
+      <c r="H17" s="69" t="n">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="56">
+      <c r="A18" s="21" t="n"/>
+      <c r="B18" s="22" t="n"/>
+      <c r="C18" s="22" t="n"/>
+      <c r="D18" s="22" t="n"/>
+      <c r="E18" s="22" t="n"/>
+      <c r="F18" s="22" t="n"/>
+      <c r="G18" s="22" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="H18" s="31">
+        <f>SUM(H16:H17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="56">
+      <c r="A19" s="21" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="22" t="n"/>
+      <c r="D19" s="22" t="n"/>
+      <c r="E19" s="22" t="n"/>
+      <c r="F19" s="22" t="n"/>
+      <c r="G19" s="22" t="inlineStr">
+        <is>
+          <t>Tax (16%)</t>
+        </is>
+      </c>
+      <c r="H19" s="31">
+        <f>H18*0.16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="56">
+      <c r="A20" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B20" s="26" t="inlineStr">
+        <is>
+          <t>Visit Charges</t>
+        </is>
+      </c>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="28" t="n"/>
+      <c r="E20" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>780</v>
+      </c>
+      <c r="H20" s="8">
+        <f>G20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="56">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="26" t="inlineStr">
+        <is>
+          <t>Out of City Charges</t>
+        </is>
+      </c>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="28" t="n"/>
+      <c r="E21" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="56">
+      <c r="A22" s="21" t="n"/>
+      <c r="B22" s="22" t="n"/>
+      <c r="C22" s="22" t="n"/>
+      <c r="D22" s="22" t="n"/>
+      <c r="E22" s="22" t="n"/>
+      <c r="F22" s="22" t="n"/>
+      <c r="G22" s="22" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H18:H21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="34" t="n"/>
+      <c r="B23" s="34" t="n"/>
+      <c r="C23" s="34" t="n"/>
+      <c r="D23" s="34" t="n"/>
+      <c r="E23" s="34" t="n"/>
+      <c r="F23" s="34" t="n"/>
+      <c r="G23" s="34" t="n"/>
+      <c r="H23" s="34" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="n"/>
+      <c r="B24" s="34" t="n"/>
+      <c r="C24" s="34" t="n"/>
+      <c r="D24" s="34" t="n"/>
+      <c r="E24" s="34" t="n"/>
+      <c r="F24" s="34" t="n"/>
+      <c r="G24" s="34" t="n"/>
+      <c r="H24" s="34" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="56">
+      <c r="A25" s="33" t="inlineStr">
+        <is>
+          <t>Truly Yours,</t>
+        </is>
+      </c>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="n"/>
+      <c r="B26" s="34" t="n"/>
+      <c r="C26" s="34" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="34" t="n"/>
+      <c r="F26" s="34" t="n"/>
+      <c r="G26" s="34" t="n"/>
+      <c r="H26" s="34" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="29" t="inlineStr">
+        <is>
+          <t>ASAD ALI</t>
+        </is>
+      </c>
+      <c r="B27" s="29" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="10" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="10" t="n"/>
+      <c r="G27" s="10" t="n"/>
+      <c r="H27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="56">
+      <c r="A28" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   (Chief Executive)</t>
+        </is>
+      </c>
+      <c r="B28" s="33" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+    </row>
+    <row r="43">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="56" min="1" max="3"/>
+    <col width="14.85546875" customWidth="1" style="56" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="56" min="5" max="7"/>
+    <col width="13.85546875" customWidth="1" style="56" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="56" min="9" max="95"/>
+    <col width="9.140625" customWidth="1" style="56" min="96" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="120.75" customHeight="1" s="56" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="56">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="33" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D2" s="64" t="inlineStr">
+        <is>
+          <t>LB005-03-2021</t>
+        </is>
+      </c>
+      <c r="E2" s="62" t="n"/>
+      <c r="F2" s="63" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>STRN</t>
+        </is>
+      </c>
+      <c r="D3" s="64" t="inlineStr">
+        <is>
+          <t>8187702-6</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="33" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NTN</t>
+        </is>
+      </c>
+      <c r="D4" s="64" t="inlineStr">
+        <is>
+          <t>35101-2935417-3</t>
+        </is>
+      </c>
+      <c r="E4" s="62" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="56" thickBot="1">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="33" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>AC/NO</t>
+        </is>
+      </c>
+      <c r="D5" s="65" t="inlineStr">
+        <is>
+          <t>0018 0981 0217 5901</t>
+        </is>
+      </c>
+      <c r="E5" s="62" t="n"/>
+      <c r="F5" s="63" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" s="56">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="33" t="n"/>
+      <c r="C6" s="33" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="56">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>18/Mar/2021</t>
+        </is>
+      </c>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="30" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="55" t="inlineStr">
+        <is>
+          <t>Complaint No.</t>
+        </is>
+      </c>
+      <c r="G7" s="55" t="n"/>
+      <c r="H7" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="56">
+      <c r="A8" s="33" t="inlineStr">
+        <is>
+          <t>BANK AL-HABIB</t>
+        </is>
+      </c>
+      <c r="B8" s="33" t="n"/>
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="56">
+      <c r="A9" s="33" t="inlineStr">
+        <is>
+          <t>TIMBER MARKET Branch,LHR ZONE</t>
+        </is>
+      </c>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="32" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="56">
+      <c r="A10" s="66" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="56">
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="32" t="n"/>
+      <c r="C11" s="32" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="55" t="inlineStr">
+        <is>
+          <t>Subject:      Bill for subject_line:</t>
+        </is>
+      </c>
+      <c r="B12" s="55" t="n"/>
+      <c r="C12" s="55" t="n"/>
+      <c r="D12" s="55" t="n"/>
+      <c r="E12" s="55" t="n"/>
+      <c r="F12" s="55" t="n"/>
+      <c r="G12" s="55" t="n"/>
+      <c r="H12" s="55" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="56">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="33" t="n"/>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="33" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="61" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B14" s="62" t="n"/>
+      <c r="C14" s="62" t="n"/>
+      <c r="D14" s="62" t="n"/>
+      <c r="E14" s="62" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="62" t="n"/>
+      <c r="H14" s="63" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="61" t="inlineStr">
+        <is>
+          <t>Sr No</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C15" s="62" t="n"/>
+      <c r="D15" s="63" t="n"/>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="F15" s="61" t="inlineStr">
+        <is>
+          <t>Job</t>
+        </is>
+      </c>
+      <c r="G15" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rate </t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="31.5" customHeight="1" s="56">
+      <c r="A16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Charging ( upto to 2 Ton) Inverter AC Unit Unit </t>
+        </is>
+      </c>
+      <c r="C16" s="62" t="n"/>
+      <c r="D16" s="63" t="n"/>
+      <c r="E16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="65" t="n"/>
+      <c r="G16" s="67" t="n">
+        <v>4670</v>
+      </c>
+      <c r="H16" s="69" t="n">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="56">
+      <c r="A17" s="67" t="n"/>
+      <c r="B17" s="68" t="n"/>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="67" t="n"/>
+      <c r="F17" s="65" t="n"/>
+      <c r="G17" s="67" t="n"/>
+      <c r="H17" s="69" t="n"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="56">
+      <c r="A18" s="21" t="n"/>
+      <c r="B18" s="22" t="n"/>
+      <c r="C18" s="22" t="n"/>
+      <c r="D18" s="22" t="n"/>
+      <c r="E18" s="22" t="n"/>
+      <c r="F18" s="22" t="n"/>
+      <c r="G18" s="22" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="H18" s="31">
+        <f>SUM(H16:H17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="56">
+      <c r="A19" s="21" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="22" t="n"/>
+      <c r="D19" s="22" t="n"/>
+      <c r="E19" s="22" t="n"/>
+      <c r="F19" s="22" t="n"/>
+      <c r="G19" s="22" t="inlineStr">
+        <is>
+          <t>Tax (16%)</t>
+        </is>
+      </c>
+      <c r="H19" s="31">
+        <f>H18*0.16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="56">
+      <c r="A20" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B20" s="26" t="inlineStr">
+        <is>
+          <t>Visit Charges</t>
+        </is>
+      </c>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="28" t="n"/>
+      <c r="E20" s="65" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>780</v>
+      </c>
+      <c r="H20" s="8">
+        <f>G20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="56">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="26" t="inlineStr">
+        <is>
+          <t>Out of City Charges</t>
+        </is>
+      </c>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="28" t="n"/>
+      <c r="E21" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="56">
+      <c r="A22" s="21" t="n"/>
+      <c r="B22" s="22" t="n"/>
+      <c r="C22" s="22" t="n"/>
+      <c r="D22" s="22" t="n"/>
+      <c r="E22" s="22" t="n"/>
+      <c r="F22" s="22" t="n"/>
+      <c r="G22" s="22" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H18:H21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="34" t="n"/>
+      <c r="B23" s="34" t="n"/>
+      <c r="C23" s="34" t="n"/>
+      <c r="D23" s="34" t="n"/>
+      <c r="E23" s="34" t="n"/>
+      <c r="F23" s="34" t="n"/>
+      <c r="G23" s="34" t="n"/>
+      <c r="H23" s="34" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="n"/>
+      <c r="B24" s="34" t="n"/>
+      <c r="C24" s="34" t="n"/>
+      <c r="D24" s="34" t="n"/>
+      <c r="E24" s="34" t="n"/>
+      <c r="F24" s="34" t="n"/>
+      <c r="G24" s="34" t="n"/>
+      <c r="H24" s="34" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="56">
+      <c r="A25" s="33" t="inlineStr">
+        <is>
+          <t>Truly Yours,</t>
+        </is>
+      </c>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="n"/>
+      <c r="B26" s="34" t="n"/>
+      <c r="C26" s="34" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="34" t="n"/>
+      <c r="F26" s="34" t="n"/>
+      <c r="G26" s="34" t="n"/>
+      <c r="H26" s="34" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="29" t="inlineStr">
+        <is>
+          <t>ASAD ALI</t>
+        </is>
+      </c>
+      <c r="B27" s="29" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="10" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="10" t="n"/>
+      <c r="G27" s="10" t="n"/>
+      <c r="H27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="56">
+      <c r="A28" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   (Chief Executive)</t>
+        </is>
+      </c>
+      <c r="B28" s="33" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+    </row>
     <row r="43">
       <c r="H43" t="inlineStr">
         <is>

--- a/User Data/MARCH_2021/Monthly Report LHR 01-03-2021.xlsx
+++ b/User Data/MARCH_2021/Monthly Report LHR 01-03-2021.xlsx
@@ -1895,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2332,20 +2332,6 @@
       <c r="G28" s="10" t="n"/>
       <c r="H28" s="10" t="n"/>
     </row>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
     <row r="43">
       <c r="H43" t="inlineStr">
         <is>
@@ -2945,7 +2931,7 @@
     <row r="7" ht="15.75" customHeight="1" s="56">
       <c r="A7" s="30" t="inlineStr">
         <is>
-          <t>18/Mar/2021</t>
+          <t>24/Mar/2021</t>
         </is>
       </c>
       <c r="B7" s="30" t="n"/>
@@ -3891,7 +3877,7 @@
     <row r="7" ht="15.75" customHeight="1" s="56">
       <c r="A7" s="30" t="inlineStr">
         <is>
-          <t>18/Mar/2021</t>
+          <t>25/Mar/2021</t>
         </is>
       </c>
       <c r="B7" s="30" t="n"/>
@@ -4851,7 +4837,7 @@
     <row r="7" ht="15.75" customHeight="1" s="56">
       <c r="A7" s="30" t="inlineStr">
         <is>
-          <t>18/Mar/2021</t>
+          <t>30/Mar/2021</t>
         </is>
       </c>
       <c r="B7" s="30" t="n"/>
